--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_9_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1407595.113556426</v>
+        <v>1372214.678834724</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1092447.375336352</v>
+        <v>1092447.375336354</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7361966.055782025</v>
+        <v>7361966.055782028</v>
       </c>
     </row>
     <row r="9">
@@ -661,73 +661,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="E2" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>7.293863480540836</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.85476540383092</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>25.58810603624128</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>54.19701966463789</v>
-      </c>
-      <c r="G2" t="n">
-        <v>54.19701966463789</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>54.19701966463789</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47.73673492061304</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H3" t="n">
         <v>54.19701966463789</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>16.32206764769464</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="G4" t="n">
-        <v>16.32206764769464</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H4" t="n">
         <v>54.19701966463789</v>
       </c>
       <c r="I4" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>47.07745778605062</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G5" t="n">
-        <v>54.19701966463789</v>
+        <v>39.78359430550979</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,26 +977,26 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>47.73673492061303</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>47.73673492061304</v>
+      </c>
+      <c r="X6" t="n">
         <v>54.19701966463789</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S7" t="n">
-        <v>16.32206764769464</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.19701966463789</v>
+        <v>1.547657929861283</v>
       </c>
       <c r="V7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>118.1505544713423</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>118.1505544713423</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G8" t="n">
-        <v>104.0670083783583</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H8" t="n">
-        <v>118.1505544713423</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.1505544713415</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>118.1505544713415</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>118.1505544713415</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>81.25910235942338</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>118.1505544713423</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>9.372028617266393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>118.1505544713423</v>
+        <v>118.1505544713415</v>
       </c>
       <c r="T9" t="n">
-        <v>17.06006756647662</v>
+        <v>118.1505544713415</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>118.1505544713415</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>118.1505544713423</v>
+        <v>118.1505544713415</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>45.98816245243344</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>60.76257217026607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>91.31386766724331</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>55.97983816907737</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U11" t="n">
-        <v>52.87573207809952</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
@@ -1469,7 +1469,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I12" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246036</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>42.44899948440626</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>235.5095896180192</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
@@ -1618,16 +1618,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>292.8411966768083</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.97983816907738</v>
+        <v>55.97983816907737</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>353.7719671130404</v>
       </c>
       <c r="Y14" t="n">
         <v>386.6870717512358</v>
@@ -1706,7 +1706,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I15" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246036</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>135.5771012073573</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S16" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>23.91229635397817</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="17">
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>401.6474939990163</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I17" t="n">
-        <v>148.7914756346349</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U17" t="n">
         <v>251.3684020854885</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I18" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246036</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>42.44899948440626</v>
+        <v>50.76933747752967</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3684020854885</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>26.77415394845544</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>27.04418414026291</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0188232547115</v>
+        <v>128.3927968208129</v>
       </c>
       <c r="V22" t="n">
-        <v>169.731854623711</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>11.90563867397917</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I23" t="n">
         <v>152.5223218189376</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>216.980993107702</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>99.79789779300857</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,7 +2402,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746457</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>99.92585448901902</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>155.1887879554427</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>195.649414864177</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>55.9798381690774</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>272.0685085276698</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
@@ -2654,7 +2654,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I27" t="n">
-        <v>61.32090000246038</v>
+        <v>61.32090000246037</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.28281404613734</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S27" t="n">
         <v>155.3758183558542</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>62.82556067006116</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>142.3152650383088</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.2763914303091</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S28" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>140.533899142658</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H29" t="n">
-        <v>324.1439237596927</v>
+        <v>145.9968206383071</v>
       </c>
       <c r="I29" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>55.9798381690774</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -2891,7 +2891,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I30" t="n">
-        <v>61.32090000246038</v>
+        <v>61.32090000246037</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.28281404613734</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S30" t="n">
         <v>155.3758183558542</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>82.78786478709938</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.6904612099067</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>124.2359659528937</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>55.9798381690774</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.980993107702</v>
@@ -3097,7 +3097,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>257.7380368149084</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I33" t="n">
-        <v>61.32090000246038</v>
+        <v>61.32090000246037</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.28281404613734</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S33" t="n">
         <v>155.3758183558542</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>167.2763914303091</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>57.94432130671481</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.07813228424374</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>91.26469724684149</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>312.3887704965138</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I36" t="n">
-        <v>61.32090000246038</v>
+        <v>61.32090000246037</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.28281404613734</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S36" t="n">
         <v>155.3758183558542</v>
@@ -3429,16 +3429,16 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>28.40014690925766</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>39.67513483065238</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T38" t="n">
-        <v>130.0405515151304</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U38" t="n">
         <v>251.3684020854885</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>319.4204509121008</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
@@ -3584,7 +3584,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>171.0255839274012</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>57.87056767401101</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
         <v>167.2763914303091</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>67.89373504763836</v>
       </c>
     </row>
     <row r="41">
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>322.458785419299</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.4877467656314</v>
@@ -3802,7 +3802,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>271.7696546933565</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>78.67456933491722</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>148.575638881615</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
@@ -3985,7 +3985,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>192.0398856587758</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
@@ -3997,7 +3997,7 @@
         <v>324.1439237596927</v>
       </c>
       <c r="I44" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>72.1997504370413</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835495</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>135.2917907515943</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I46" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>94.72021194624136</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>216.0749480674118</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162.0436143508365</v>
+        <v>136.1970425970574</v>
       </c>
       <c r="C2" t="n">
-        <v>162.0436143508365</v>
+        <v>81.4525782893424</v>
       </c>
       <c r="D2" t="n">
-        <v>162.0436143508365</v>
+        <v>26.70811398162736</v>
       </c>
       <c r="E2" t="n">
-        <v>113.8246901886011</v>
+        <v>26.70811398162736</v>
       </c>
       <c r="F2" t="n">
-        <v>59.08022588088608</v>
+        <v>19.34057511239419</v>
       </c>
       <c r="G2" t="n">
         <v>4.335761573171031</v>
@@ -4333,19 +4333,19 @@
         <v>4.335761573171031</v>
       </c>
       <c r="K2" t="n">
-        <v>57.99081104116254</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L2" t="n">
-        <v>111.6458605091541</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="M2" t="n">
-        <v>165.3009099771456</v>
+        <v>51.80398302245153</v>
       </c>
       <c r="N2" t="n">
-        <v>212.7691314264261</v>
+        <v>105.459032490443</v>
       </c>
       <c r="O2" t="n">
-        <v>212.7691314264261</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="P2" t="n">
         <v>212.7691314264261</v>
@@ -4354,28 +4354,28 @@
         <v>216.7880786585516</v>
       </c>
       <c r="R2" t="n">
-        <v>162.0436143508365</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S2" t="n">
-        <v>162.0436143508365</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T2" t="n">
-        <v>162.0436143508365</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U2" t="n">
-        <v>162.0436143508365</v>
+        <v>190.9415069047725</v>
       </c>
       <c r="V2" t="n">
-        <v>162.0436143508365</v>
+        <v>190.9415069047725</v>
       </c>
       <c r="W2" t="n">
-        <v>162.0436143508365</v>
+        <v>190.9415069047725</v>
       </c>
       <c r="X2" t="n">
-        <v>162.0436143508365</v>
+        <v>190.9415069047725</v>
       </c>
       <c r="Y2" t="n">
-        <v>162.0436143508365</v>
+        <v>136.1970425970574</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.0436143508365</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="C3" t="n">
-        <v>162.0436143508365</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="D3" t="n">
-        <v>162.0436143508365</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="E3" t="n">
-        <v>162.0436143508365</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="F3" t="n">
-        <v>162.0436143508365</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="G3" t="n">
         <v>113.8246901886011</v>
@@ -4412,49 +4412,49 @@
         <v>11.72907241965593</v>
       </c>
       <c r="K3" t="n">
-        <v>11.72907241965593</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="L3" t="n">
-        <v>65.38412188764744</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="M3" t="n">
-        <v>119.039171355639</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="N3" t="n">
+        <v>109.4779797225685</v>
+      </c>
+      <c r="O3" t="n">
+        <v>109.4779797225685</v>
+      </c>
+      <c r="P3" t="n">
         <v>163.1330291905601</v>
-      </c>
-      <c r="O3" t="n">
-        <v>216.7880786585516</v>
-      </c>
-      <c r="P3" t="n">
-        <v>216.7880786585516</v>
       </c>
       <c r="Q3" t="n">
         <v>216.7880786585516</v>
       </c>
       <c r="R3" t="n">
-        <v>162.0436143508365</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S3" t="n">
-        <v>162.0436143508365</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T3" t="n">
-        <v>162.0436143508365</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U3" t="n">
-        <v>162.0436143508365</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V3" t="n">
-        <v>162.0436143508365</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="W3" t="n">
-        <v>162.0436143508365</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="X3" t="n">
-        <v>162.0436143508365</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="Y3" t="n">
-        <v>162.0436143508365</v>
+        <v>168.5691544963162</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.0560915141895</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="C4" t="n">
-        <v>185.0560915141895</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="D4" t="n">
-        <v>185.0560915141895</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0560915141895</v>
+        <v>200.3011416406782</v>
       </c>
       <c r="F4" t="n">
-        <v>185.0560915141895</v>
+        <v>145.5566773329631</v>
       </c>
       <c r="G4" t="n">
-        <v>168.5691544963162</v>
+        <v>90.8122130252481</v>
       </c>
       <c r="H4" t="n">
-        <v>113.8246901886011</v>
+        <v>36.06774871753305</v>
       </c>
       <c r="I4" t="n">
-        <v>59.08022588088608</v>
+        <v>36.06774871753305</v>
       </c>
       <c r="J4" t="n">
-        <v>4.335761573171031</v>
+        <v>36.06774871753305</v>
       </c>
       <c r="K4" t="n">
-        <v>4.335761573171031</v>
+        <v>36.06774871753305</v>
       </c>
       <c r="L4" t="n">
-        <v>41.42228049989023</v>
+        <v>73.15426764425224</v>
       </c>
       <c r="M4" t="n">
-        <v>91.1177144168297</v>
+        <v>122.8497015611917</v>
       </c>
       <c r="N4" t="n">
-        <v>144.7727638848212</v>
+        <v>176.5047510291832</v>
       </c>
       <c r="O4" t="n">
-        <v>178.9952898344926</v>
+        <v>210.7272769788546</v>
       </c>
       <c r="P4" t="n">
-        <v>185.0560915141895</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q4" t="n">
-        <v>185.0560915141895</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R4" t="n">
-        <v>185.0560915141895</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S4" t="n">
-        <v>185.0560915141895</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T4" t="n">
-        <v>185.0560915141895</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U4" t="n">
-        <v>185.0560915141895</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V4" t="n">
-        <v>185.0560915141895</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W4" t="n">
-        <v>185.0560915141895</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X4" t="n">
-        <v>185.0560915141895</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y4" t="n">
-        <v>185.0560915141895</v>
+        <v>216.7880786585516</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>162.0436143508365</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="C5" t="n">
-        <v>162.0436143508365</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="D5" t="n">
-        <v>107.2991500431215</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="E5" t="n">
-        <v>107.2991500431215</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="F5" t="n">
-        <v>59.74616238044408</v>
+        <v>45.18714686617326</v>
       </c>
       <c r="G5" t="n">
         <v>5.001698072729027</v>
@@ -4570,22 +4570,22 @@
         <v>4.335761573171031</v>
       </c>
       <c r="K5" t="n">
-        <v>4.335761573171031</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="L5" t="n">
-        <v>57.99081104116254</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="M5" t="n">
-        <v>111.6458605091541</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="N5" t="n">
         <v>165.3009099771456</v>
       </c>
       <c r="O5" t="n">
-        <v>212.7691314264261</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="P5" t="n">
-        <v>212.7691314264261</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q5" t="n">
         <v>216.7880786585516</v>
@@ -4606,13 +4606,13 @@
         <v>162.0436143508365</v>
       </c>
       <c r="W5" t="n">
-        <v>162.0436143508365</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="X5" t="n">
-        <v>162.0436143508365</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="Y5" t="n">
-        <v>162.0436143508365</v>
+        <v>52.55468573540642</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.0436143508365</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="C6" t="n">
-        <v>107.2991500431215</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="D6" t="n">
-        <v>107.2991500431215</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="E6" t="n">
-        <v>107.2991500431215</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="F6" t="n">
-        <v>107.2991500431215</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="G6" t="n">
-        <v>52.55468573540642</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="H6" t="n">
-        <v>52.55468573540642</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="I6" t="n">
         <v>4.335761573171031</v>
       </c>
       <c r="J6" t="n">
-        <v>11.72907241965593</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K6" t="n">
-        <v>65.38412188764744</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="L6" t="n">
-        <v>109.4779797225685</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="M6" t="n">
-        <v>163.1330291905601</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="N6" t="n">
-        <v>163.1330291905601</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="O6" t="n">
-        <v>163.1330291905601</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="P6" t="n">
         <v>216.7880786585516</v>
@@ -4673,25 +4673,25 @@
         <v>216.7880786585516</v>
       </c>
       <c r="S6" t="n">
-        <v>162.0436143508365</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T6" t="n">
-        <v>162.0436143508365</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U6" t="n">
-        <v>162.0436143508365</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V6" t="n">
-        <v>162.0436143508365</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W6" t="n">
-        <v>162.0436143508365</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="X6" t="n">
-        <v>162.0436143508365</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="Y6" t="n">
-        <v>162.0436143508365</v>
+        <v>113.8246901886011</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="C7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="D7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="E7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="F7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="G7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="H7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="I7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="J7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K7" t="n">
         <v>4.335761573171031</v>
@@ -4746,31 +4746,31 @@
         <v>185.0560915141895</v>
       </c>
       <c r="Q7" t="n">
-        <v>185.0560915141895</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="R7" t="n">
-        <v>185.0560915141895</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="S7" t="n">
-        <v>168.5691544963162</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="T7" t="n">
-        <v>113.8246901886011</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="U7" t="n">
-        <v>59.08022588088608</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="V7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="W7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="X7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>472.6022178853692</v>
+        <v>32.49033326572164</v>
       </c>
       <c r="C8" t="n">
-        <v>472.6022178853692</v>
+        <v>32.49033326572164</v>
       </c>
       <c r="D8" t="n">
-        <v>353.258223469872</v>
+        <v>32.49033326572164</v>
       </c>
       <c r="E8" t="n">
-        <v>353.258223469872</v>
+        <v>32.49033326572164</v>
       </c>
       <c r="F8" t="n">
-        <v>233.9142290543747</v>
+        <v>25.12279439648847</v>
       </c>
       <c r="G8" t="n">
-        <v>128.7960387732047</v>
+        <v>10.11798085726532</v>
       </c>
       <c r="H8" t="n">
-        <v>9.452044357707384</v>
+        <v>10.11798085726532</v>
       </c>
       <c r="I8" t="n">
-        <v>9.452044357707384</v>
+        <v>10.11798085726532</v>
       </c>
       <c r="J8" t="n">
-        <v>9.452044357707384</v>
+        <v>9.452044357707322</v>
       </c>
       <c r="K8" t="n">
-        <v>126.4210932843363</v>
+        <v>9.452044357707322</v>
       </c>
       <c r="L8" t="n">
-        <v>243.3901422109652</v>
+        <v>126.4210932843354</v>
       </c>
       <c r="M8" t="n">
-        <v>351.6142217266149</v>
+        <v>243.3901422109635</v>
       </c>
       <c r="N8" t="n">
-        <v>351.6142217266149</v>
+        <v>360.3591911375916</v>
       </c>
       <c r="O8" t="n">
-        <v>468.5832706532437</v>
+        <v>472.6022178853661</v>
       </c>
       <c r="P8" t="n">
-        <v>468.5832706532437</v>
+        <v>472.6022178853661</v>
       </c>
       <c r="Q8" t="n">
-        <v>472.6022178853692</v>
+        <v>472.6022178853661</v>
       </c>
       <c r="R8" t="n">
-        <v>472.6022178853692</v>
+        <v>353.2582234698696</v>
       </c>
       <c r="S8" t="n">
-        <v>472.6022178853692</v>
+        <v>233.9142290543731</v>
       </c>
       <c r="T8" t="n">
-        <v>472.6022178853692</v>
+        <v>233.9142290543731</v>
       </c>
       <c r="U8" t="n">
-        <v>472.6022178853692</v>
+        <v>114.5702346388766</v>
       </c>
       <c r="V8" t="n">
-        <v>472.6022178853692</v>
+        <v>32.49033326572164</v>
       </c>
       <c r="W8" t="n">
-        <v>472.6022178853692</v>
+        <v>32.49033326572164</v>
       </c>
       <c r="X8" t="n">
-        <v>472.6022178853692</v>
+        <v>32.49033326572164</v>
       </c>
       <c r="Y8" t="n">
-        <v>472.6022178853692</v>
+        <v>32.49033326572164</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>240.3743372804095</v>
+        <v>18.91873993070368</v>
       </c>
       <c r="C9" t="n">
-        <v>240.3743372804095</v>
+        <v>18.91873993070368</v>
       </c>
       <c r="D9" t="n">
-        <v>240.3743372804095</v>
+        <v>18.91873993070368</v>
       </c>
       <c r="E9" t="n">
-        <v>121.0303428649122</v>
+        <v>18.91873993070368</v>
       </c>
       <c r="F9" t="n">
-        <v>121.0303428649122</v>
+        <v>18.91873993070368</v>
       </c>
       <c r="G9" t="n">
-        <v>121.0303428649122</v>
+        <v>18.91873993070368</v>
       </c>
       <c r="H9" t="n">
-        <v>9.452044357707384</v>
+        <v>18.91873993070368</v>
       </c>
       <c r="I9" t="n">
-        <v>9.452044357707384</v>
+        <v>9.452044357707322</v>
       </c>
       <c r="J9" t="n">
-        <v>16.84535520419228</v>
+        <v>16.84535520419222</v>
       </c>
       <c r="K9" t="n">
-        <v>133.8144041308212</v>
+        <v>133.8144041308203</v>
       </c>
       <c r="L9" t="n">
-        <v>250.7834530574501</v>
+        <v>250.7834530574484</v>
       </c>
       <c r="M9" t="n">
-        <v>250.7834530574501</v>
+        <v>274.45500094244</v>
       </c>
       <c r="N9" t="n">
-        <v>355.6331689587403</v>
+        <v>274.45500094244</v>
       </c>
       <c r="O9" t="n">
-        <v>355.6331689587403</v>
+        <v>274.45500094244</v>
       </c>
       <c r="P9" t="n">
-        <v>472.6022178853692</v>
+        <v>391.4240498690681</v>
       </c>
       <c r="Q9" t="n">
-        <v>472.6022178853692</v>
+        <v>472.6022178853661</v>
       </c>
       <c r="R9" t="n">
-        <v>376.9507231771963</v>
+        <v>376.9507231771931</v>
       </c>
       <c r="S9" t="n">
-        <v>257.606728761699</v>
+        <v>257.6067287616967</v>
       </c>
       <c r="T9" t="n">
-        <v>240.3743372804095</v>
+        <v>138.2627343462002</v>
       </c>
       <c r="U9" t="n">
-        <v>240.3743372804095</v>
+        <v>138.2627343462002</v>
       </c>
       <c r="V9" t="n">
-        <v>240.3743372804095</v>
+        <v>138.2627343462002</v>
       </c>
       <c r="W9" t="n">
-        <v>240.3743372804095</v>
+        <v>18.91873993070368</v>
       </c>
       <c r="X9" t="n">
-        <v>240.3743372804095</v>
+        <v>18.91873993070368</v>
       </c>
       <c r="Y9" t="n">
-        <v>240.3743372804095</v>
+        <v>18.91873993070368</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.452044357707384</v>
+        <v>70.82837988322933</v>
       </c>
       <c r="C10" t="n">
-        <v>9.452044357707384</v>
+        <v>70.82837988322933</v>
       </c>
       <c r="D10" t="n">
-        <v>9.452044357707384</v>
+        <v>24.37569053733697</v>
       </c>
       <c r="E10" t="n">
-        <v>9.452044357707384</v>
+        <v>24.37569053733697</v>
       </c>
       <c r="F10" t="n">
-        <v>9.452044357707384</v>
+        <v>24.37569053733697</v>
       </c>
       <c r="G10" t="n">
-        <v>9.452044357707384</v>
+        <v>24.37569053733697</v>
       </c>
       <c r="H10" t="n">
-        <v>9.452044357707384</v>
+        <v>24.37569053733697</v>
       </c>
       <c r="I10" t="n">
-        <v>9.452044357707384</v>
+        <v>24.37569053733697</v>
       </c>
       <c r="J10" t="n">
-        <v>9.452044357707384</v>
+        <v>24.37569053733697</v>
       </c>
       <c r="K10" t="n">
-        <v>9.452044357707384</v>
+        <v>9.452044357707322</v>
       </c>
       <c r="L10" t="n">
-        <v>46.53856328442658</v>
+        <v>46.53856328442652</v>
       </c>
       <c r="M10" t="n">
-        <v>96.23399720136607</v>
+        <v>96.23399720136599</v>
       </c>
       <c r="N10" t="n">
-        <v>149.8890466693576</v>
+        <v>149.8890466693575</v>
       </c>
       <c r="O10" t="n">
-        <v>184.1115726190289</v>
+        <v>184.1115726190288</v>
       </c>
       <c r="P10" t="n">
-        <v>190.1723742987259</v>
+        <v>190.1723742987258</v>
       </c>
       <c r="Q10" t="n">
-        <v>190.1723742987259</v>
+        <v>190.1723742987258</v>
       </c>
       <c r="R10" t="n">
-        <v>190.1723742987259</v>
+        <v>190.1723742987258</v>
       </c>
       <c r="S10" t="n">
-        <v>190.1723742987259</v>
+        <v>190.1723742987258</v>
       </c>
       <c r="T10" t="n">
-        <v>190.1723742987259</v>
+        <v>190.1723742987258</v>
       </c>
       <c r="U10" t="n">
-        <v>190.1723742987259</v>
+        <v>190.1723742987258</v>
       </c>
       <c r="V10" t="n">
-        <v>190.1723742987259</v>
+        <v>190.1723742987258</v>
       </c>
       <c r="W10" t="n">
-        <v>190.1723742987259</v>
+        <v>190.1723742987258</v>
       </c>
       <c r="X10" t="n">
-        <v>190.1723742987259</v>
+        <v>190.1723742987258</v>
       </c>
       <c r="Y10" t="n">
-        <v>128.7960387732047</v>
+        <v>190.1723742987258</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>784.4299231736143</v>
+        <v>717.4946785456054</v>
       </c>
       <c r="C11" t="n">
-        <v>413.7379073362984</v>
+        <v>717.4946785456054</v>
       </c>
       <c r="D11" t="n">
-        <v>53.53110657407781</v>
+        <v>625.258448578693</v>
       </c>
       <c r="E11" t="n">
-        <v>53.53110657407781</v>
+        <v>625.258448578693</v>
       </c>
       <c r="F11" t="n">
-        <v>53.53110657407781</v>
+        <v>625.258448578693</v>
       </c>
       <c r="G11" t="n">
-        <v>53.53110657407781</v>
+        <v>207.594057906338</v>
       </c>
       <c r="H11" t="n">
-        <v>53.53110657407781</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I11" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J11" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733072</v>
       </c>
       <c r="K11" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632926</v>
       </c>
       <c r="L11" t="n">
         <v>877.210556824848</v>
@@ -5065,28 +5065,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R11" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S11" t="n">
-        <v>2676.555328703891</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T11" t="n">
-        <v>2676.555328703891</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="U11" t="n">
-        <v>2623.145498321972</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="V11" t="n">
-        <v>2291.293759410336</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="W11" t="n">
-        <v>1937.222934157251</v>
+        <v>1870.287689529242</v>
       </c>
       <c r="X11" t="n">
-        <v>1562.615258267181</v>
+        <v>1495.680013639172</v>
       </c>
       <c r="Y11" t="n">
-        <v>1172.022256498256</v>
+        <v>1105.087011870247</v>
       </c>
     </row>
     <row r="12">
@@ -5099,22 +5099,22 @@
         <v>979.4794979670864</v>
       </c>
       <c r="C12" t="n">
-        <v>806.7263828889036</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D12" t="n">
-        <v>659.1380762478475</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E12" t="n">
-        <v>501.5285472507022</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F12" t="n">
-        <v>356.572757267319</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G12" t="n">
-        <v>219.9143827707589</v>
+        <v>219.9143827707587</v>
       </c>
       <c r="H12" t="n">
-        <v>115.4714096068662</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I12" t="n">
         <v>53.53110657407781</v>
@@ -5144,7 +5144,7 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R12" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S12" t="n">
         <v>2469.829437388748</v>
@@ -5156,7 +5156,7 @@
         <v>2045.543118600485</v>
       </c>
       <c r="V12" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W12" t="n">
         <v>1558.777383459419</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.40888383105383</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C13" t="n">
         <v>53.53110657407781</v>
@@ -5223,28 +5223,28 @@
         <v>727.6944649328329</v>
       </c>
       <c r="R13" t="n">
-        <v>727.6944649328329</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="S13" t="n">
-        <v>727.6944649328329</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="T13" t="n">
-        <v>727.6944649328329</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="U13" t="n">
-        <v>727.6944649328329</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="V13" t="n">
-        <v>727.6944649328329</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W13" t="n">
-        <v>727.6944649328329</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="X13" t="n">
-        <v>499.2698589406014</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.3116025085122</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1467.217026640378</v>
+        <v>1652.898894217976</v>
       </c>
       <c r="C14" t="n">
-        <v>1096.525010803062</v>
+        <v>1282.20687838066</v>
       </c>
       <c r="D14" t="n">
-        <v>736.3182100408412</v>
+        <v>922.0000776184393</v>
       </c>
       <c r="E14" t="n">
-        <v>349.3302951365104</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="F14" t="n">
-        <v>53.53110657407781</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="G14" t="n">
-        <v>53.53110657407781</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="H14" t="n">
-        <v>53.53110657407781</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I14" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J14" t="n">
-        <v>167.7421803733072</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K14" t="n">
-        <v>461.1915665632927</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L14" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248484</v>
       </c>
       <c r="M14" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N14" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O14" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P14" t="n">
-        <v>2526.389973845557</v>
+        <v>2526.389973845558</v>
       </c>
       <c r="Q14" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R14" t="n">
-        <v>2620.010037624014</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="S14" t="n">
-        <v>2620.010037624014</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="T14" t="n">
-        <v>2620.010037624014</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="U14" t="n">
-        <v>2620.010037624014</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="V14" t="n">
-        <v>2620.010037624014</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="W14" t="n">
-        <v>2620.010037624014</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="X14" t="n">
-        <v>2245.402361733944</v>
+        <v>2043.491895986901</v>
       </c>
       <c r="Y14" t="n">
-        <v>1854.809359965019</v>
+        <v>1652.898894217976</v>
       </c>
     </row>
     <row r="15">
@@ -5333,55 +5333,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>979.4794979670861</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C15" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D15" t="n">
         <v>659.1380762478473</v>
       </c>
       <c r="E15" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F15" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G15" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707585</v>
       </c>
       <c r="H15" t="n">
-        <v>115.4714096068661</v>
+        <v>115.471409606866</v>
       </c>
       <c r="I15" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J15" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K15" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L15" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M15" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.57292581273</v>
       </c>
       <c r="N15" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O15" t="n">
-        <v>2236.011258252653</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P15" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567338</v>
       </c>
       <c r="Q15" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R15" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S15" t="n">
         <v>2469.829437388748</v>
@@ -5393,7 +5393,7 @@
         <v>2045.543118600485</v>
       </c>
       <c r="V15" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W15" t="n">
         <v>1558.777383459419</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.53110657407781</v>
+        <v>222.497158523885</v>
       </c>
       <c r="C16" t="n">
-        <v>53.53110657407781</v>
+        <v>222.497158523885</v>
       </c>
       <c r="D16" t="n">
-        <v>53.53110657407781</v>
+        <v>222.497158523885</v>
       </c>
       <c r="E16" t="n">
-        <v>53.53110657407781</v>
+        <v>222.497158523885</v>
       </c>
       <c r="F16" t="n">
-        <v>53.53110657407781</v>
+        <v>222.497158523885</v>
       </c>
       <c r="G16" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H16" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I16" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J16" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K16" t="n">
         <v>109.4344173802943</v>
@@ -5463,25 +5463,25 @@
         <v>580.4019818320927</v>
       </c>
       <c r="S16" t="n">
-        <v>366.5928435525523</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="T16" t="n">
-        <v>342.4390088515642</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="U16" t="n">
-        <v>53.53110657407781</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="V16" t="n">
-        <v>53.53110657407781</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="W16" t="n">
-        <v>53.53110657407781</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="X16" t="n">
-        <v>53.53110657407781</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.53110657407781</v>
+        <v>359.4437254000036</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1346.132285916216</v>
+        <v>1517.55256737433</v>
       </c>
       <c r="C17" t="n">
-        <v>975.4402700789002</v>
+        <v>1146.860551537015</v>
       </c>
       <c r="D17" t="n">
-        <v>615.2334693166796</v>
+        <v>786.6537507747939</v>
       </c>
       <c r="E17" t="n">
-        <v>615.2334693166796</v>
+        <v>786.6537507747939</v>
       </c>
       <c r="F17" t="n">
-        <v>203.8255264070423</v>
+        <v>786.6537507747939</v>
       </c>
       <c r="G17" t="n">
-        <v>203.8255264070423</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H17" t="n">
-        <v>203.8255264070423</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I17" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J17" t="n">
-        <v>167.7421803733072</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K17" t="n">
-        <v>461.1915665632927</v>
+        <v>461.1915665632929</v>
       </c>
       <c r="L17" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248483</v>
       </c>
       <c r="M17" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N17" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O17" t="n">
         <v>2223.65047400805</v>
@@ -5545,22 +5545,22 @@
         <v>2676.555328703891</v>
       </c>
       <c r="T17" t="n">
-        <v>2676.555328703891</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U17" t="n">
-        <v>2422.647851849862</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="V17" t="n">
-        <v>2090.796112938227</v>
+        <v>1871.623392627416</v>
       </c>
       <c r="W17" t="n">
-        <v>1736.725287685141</v>
+        <v>1517.55256737433</v>
       </c>
       <c r="X17" t="n">
-        <v>1736.725287685141</v>
+        <v>1517.55256737433</v>
       </c>
       <c r="Y17" t="n">
-        <v>1346.132285916216</v>
+        <v>1517.55256737433</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C18" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D18" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E18" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F18" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G18" t="n">
-        <v>219.9143827707586</v>
+        <v>219.9143827707585</v>
       </c>
       <c r="H18" t="n">
-        <v>115.471409606866</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I18" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J18" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K18" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L18" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M18" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.57292581273</v>
       </c>
       <c r="N18" t="n">
-        <v>1795.848577958314</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O18" t="n">
-        <v>2236.011258252653</v>
+        <v>2311.816636565171</v>
       </c>
       <c r="P18" t="n">
-        <v>2572.854073537543</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q18" t="n">
         <v>2676.555328703891</v>
@@ -5627,19 +5627,19 @@
         <v>2272.420954324037</v>
       </c>
       <c r="U18" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V18" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W18" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X18" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y18" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.40888383105383</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="C19" t="n">
-        <v>96.40888383105383</v>
+        <v>558.6676437902044</v>
       </c>
       <c r="D19" t="n">
-        <v>96.40888383105383</v>
+        <v>558.6676437902044</v>
       </c>
       <c r="E19" t="n">
-        <v>96.40888383105383</v>
+        <v>410.2084274536395</v>
       </c>
       <c r="F19" t="n">
-        <v>96.40888383105383</v>
+        <v>262.5730522922208</v>
       </c>
       <c r="G19" t="n">
-        <v>53.53110657407781</v>
+        <v>211.290893224009</v>
       </c>
       <c r="H19" t="n">
         <v>53.53110657407781</v>
@@ -5715,10 +5715,10 @@
         <v>727.6944649328329</v>
       </c>
       <c r="X19" t="n">
-        <v>499.2698589406014</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.3116025085122</v>
+        <v>727.6944649328329</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>882.6034401560701</v>
+        <v>1242.810240918291</v>
       </c>
       <c r="C20" t="n">
-        <v>882.6034401560701</v>
+        <v>1242.810240918291</v>
       </c>
       <c r="D20" t="n">
         <v>882.6034401560701</v>
@@ -5776,28 +5776,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R20" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S20" t="n">
-        <v>2443.531235093138</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.358514782327</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="U20" t="n">
-        <v>1970.451037928299</v>
+        <v>2422.647851849862</v>
       </c>
       <c r="V20" t="n">
-        <v>1638.599299016663</v>
+        <v>2422.647851849862</v>
       </c>
       <c r="W20" t="n">
-        <v>1284.528473763577</v>
+        <v>2395.603251901927</v>
       </c>
       <c r="X20" t="n">
-        <v>909.9207978735074</v>
+        <v>2020.995576011857</v>
       </c>
       <c r="Y20" t="n">
-        <v>882.6034401560701</v>
+        <v>1630.402574242932</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.4794979670864</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C21" t="n">
-        <v>806.7263828889036</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D21" t="n">
-        <v>659.1380762478475</v>
+        <v>659.138076247847</v>
       </c>
       <c r="E21" t="n">
-        <v>501.5285472507022</v>
+        <v>501.5285472507018</v>
       </c>
       <c r="F21" t="n">
-        <v>356.572757267319</v>
+        <v>356.5727572673186</v>
       </c>
       <c r="G21" t="n">
         <v>219.9143827707587</v>
@@ -5861,22 +5861,22 @@
         <v>2469.829437388747</v>
       </c>
       <c r="T21" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U21" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V21" t="n">
         <v>1811.291875126085</v>
       </c>
       <c r="W21" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X21" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y21" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="22">
@@ -5937,16 +5937,16 @@
         <v>727.6944649328329</v>
       </c>
       <c r="S22" t="n">
-        <v>513.8853266532925</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T22" t="n">
-        <v>513.8853266532925</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U22" t="n">
-        <v>224.9774243758061</v>
+        <v>598.0047711744361</v>
       </c>
       <c r="V22" t="n">
-        <v>53.53110657407781</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W22" t="n">
         <v>53.53110657407781</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>950.5187721563584</v>
+        <v>1339.664468290794</v>
       </c>
       <c r="C23" t="n">
-        <v>579.8267563190426</v>
+        <v>1339.664468290794</v>
       </c>
       <c r="D23" t="n">
-        <v>219.619955556822</v>
+        <v>1339.664468290794</v>
       </c>
       <c r="E23" t="n">
-        <v>207.594057906338</v>
+        <v>952.6765533864634</v>
       </c>
       <c r="F23" t="n">
-        <v>207.594057906338</v>
+        <v>952.6765533864634</v>
       </c>
       <c r="G23" t="n">
-        <v>207.594057906338</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="H23" t="n">
         <v>207.594057906338</v>
@@ -5992,16 +5992,16 @@
         <v>167.7421803733073</v>
       </c>
       <c r="K23" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L23" t="n">
-        <v>877.2105568248486</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M23" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N23" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O23" t="n">
         <v>2223.65047400805</v>
@@ -6013,28 +6013,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R23" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S23" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T23" t="n">
-        <v>2457.38260839308</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="U23" t="n">
-        <v>2457.38260839308</v>
+        <v>2146.929840459175</v>
       </c>
       <c r="V23" t="n">
-        <v>2457.38260839308</v>
+        <v>1815.07810154754</v>
       </c>
       <c r="W23" t="n">
-        <v>2103.311783139995</v>
+        <v>1714.272144180864</v>
       </c>
       <c r="X23" t="n">
-        <v>1728.704107249925</v>
+        <v>1339.664468290794</v>
       </c>
       <c r="Y23" t="n">
-        <v>1338.111105481</v>
+        <v>1339.664468290794</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>979.4794979670861</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C24" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D24" t="n">
         <v>659.138076247847</v>
@@ -6068,16 +6068,16 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J24" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K24" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L24" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M24" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N24" t="n">
         <v>1725.940263988108</v>
@@ -6113,7 +6113,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y24" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="C25" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="D25" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="E25" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="F25" t="n">
-        <v>53.53110657407781</v>
+        <v>291.1511874939279</v>
       </c>
       <c r="G25" t="n">
-        <v>53.53110657407781</v>
+        <v>291.1511874939279</v>
       </c>
       <c r="H25" t="n">
-        <v>53.53110657407781</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="I25" t="n">
         <v>53.53110657407781</v>
@@ -6177,22 +6177,22 @@
         <v>727.6944649328329</v>
       </c>
       <c r="T25" t="n">
-        <v>570.9381134626888</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U25" t="n">
-        <v>570.9381134626888</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="V25" t="n">
-        <v>570.9381134626888</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="W25" t="n">
-        <v>281.9557125663094</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="X25" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7865626553465</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>938.4928745058744</v>
+        <v>1467.217026640378</v>
       </c>
       <c r="C26" t="n">
-        <v>567.8008586685586</v>
+        <v>1467.217026640378</v>
       </c>
       <c r="D26" t="n">
-        <v>207.594057906338</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="E26" t="n">
-        <v>207.594057906338</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F26" t="n">
-        <v>207.594057906338</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G26" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H26" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I26" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J26" t="n">
-        <v>167.7421803733077</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K26" t="n">
-        <v>461.191566563293</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L26" t="n">
-        <v>877.2105568248484</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M26" t="n">
         <v>1355.324135626645</v>
@@ -6247,7 +6247,7 @@
         <v>2526.389973845557</v>
       </c>
       <c r="Q26" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R26" t="n">
         <v>2620.010037624014</v>
@@ -6259,19 +6259,19 @@
         <v>2620.010037624014</v>
       </c>
       <c r="U26" t="n">
-        <v>2366.102560769985</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="V26" t="n">
-        <v>2366.102560769985</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="W26" t="n">
-        <v>2091.285885489511</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="X26" t="n">
-        <v>1716.678209599441</v>
+        <v>2245.402361733944</v>
       </c>
       <c r="Y26" t="n">
-        <v>1326.085207830516</v>
+        <v>1854.809359965019</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>115.4714096068661</v>
       </c>
       <c r="I27" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J27" t="n">
-        <v>53.5311065740778</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K27" t="n">
-        <v>309.7001854454656</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L27" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M27" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N27" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O27" t="n">
-        <v>2236.011258252653</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P27" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q27" t="n">
         <v>2676.555328703891</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8853266532924</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8853266532924</v>
+        <v>516.9418195391016</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8853266532924</v>
+        <v>516.9418195391016</v>
       </c>
       <c r="E28" t="n">
-        <v>370.1325336853037</v>
+        <v>516.9418195391016</v>
       </c>
       <c r="F28" t="n">
-        <v>222.497158523885</v>
+        <v>516.9418195391016</v>
       </c>
       <c r="G28" t="n">
-        <v>53.5311065740778</v>
+        <v>347.9757675892944</v>
       </c>
       <c r="H28" t="n">
-        <v>53.5311065740778</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="I28" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J28" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K28" t="n">
-        <v>109.4344173802942</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L28" t="n">
-        <v>236.7750235124169</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M28" t="n">
         <v>381.630737830651</v>
       </c>
       <c r="N28" t="n">
-        <v>528.1833689256791</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O28" t="n">
-        <v>648.2118474172127</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P28" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q28" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R28" t="n">
-        <v>727.6944649328328</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8853266532924</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="T28" t="n">
-        <v>513.8853266532924</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="U28" t="n">
-        <v>513.8853266532924</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="V28" t="n">
-        <v>513.8853266532924</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="W28" t="n">
-        <v>513.8853266532924</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="X28" t="n">
-        <v>513.8853266532924</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="Y28" t="n">
-        <v>513.8853266532924</v>
+        <v>580.4019818320927</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1841.824702530447</v>
+        <v>618.6670332447228</v>
       </c>
       <c r="C29" t="n">
-        <v>1841.824702530447</v>
+        <v>618.6670332447228</v>
       </c>
       <c r="D29" t="n">
-        <v>1481.617901768227</v>
+        <v>618.6670332447228</v>
       </c>
       <c r="E29" t="n">
-        <v>1094.629986863896</v>
+        <v>618.6670332447228</v>
       </c>
       <c r="F29" t="n">
-        <v>952.6765533864634</v>
+        <v>618.6670332447228</v>
       </c>
       <c r="G29" t="n">
-        <v>535.0121627141084</v>
+        <v>201.0026425723678</v>
       </c>
       <c r="H29" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I29" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J29" t="n">
         <v>167.7421803733075</v>
       </c>
       <c r="K29" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L29" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248489</v>
       </c>
       <c r="M29" t="n">
-        <v>1355.324135626645</v>
+        <v>1355.324135626646</v>
       </c>
       <c r="N29" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O29" t="n">
-        <v>2223.650474008049</v>
+        <v>2223.65047400805</v>
       </c>
       <c r="P29" t="n">
         <v>2526.389973845557</v>
       </c>
       <c r="Q29" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R29" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S29" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T29" t="n">
-        <v>2620.010037624014</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U29" t="n">
-        <v>2620.010037624014</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="V29" t="n">
-        <v>2620.010037624014</v>
+        <v>2125.530869481445</v>
       </c>
       <c r="W29" t="n">
-        <v>2620.010037624014</v>
+        <v>1771.460044228359</v>
       </c>
       <c r="X29" t="n">
-        <v>2620.010037624014</v>
+        <v>1396.852368338289</v>
       </c>
       <c r="Y29" t="n">
-        <v>2229.417035855089</v>
+        <v>1006.259366569364</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>115.4714096068661</v>
       </c>
       <c r="I30" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J30" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K30" t="n">
-        <v>385.5055637579835</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L30" t="n">
-        <v>790.8061104916226</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M30" t="n">
-        <v>1316.572925812729</v>
+        <v>1170.859233530005</v>
       </c>
       <c r="N30" t="n">
-        <v>1871.653956270832</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O30" t="n">
-        <v>2311.81663656517</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P30" t="n">
         <v>2502.945759567337</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2002.391970345135</v>
+        <v>644.070359087278</v>
       </c>
       <c r="C31" t="n">
-        <v>2002.391970345135</v>
+        <v>644.070359087278</v>
       </c>
       <c r="D31" t="n">
-        <v>2002.391970345135</v>
+        <v>644.070359087278</v>
       </c>
       <c r="E31" t="n">
-        <v>2002.391970345135</v>
+        <v>495.6111427507132</v>
       </c>
       <c r="F31" t="n">
-        <v>2002.391970345135</v>
+        <v>347.9757675892944</v>
       </c>
       <c r="G31" t="n">
-        <v>2002.391970345135</v>
+        <v>347.9757675892944</v>
       </c>
       <c r="H31" t="n">
-        <v>2002.391970345135</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="I31" t="n">
-        <v>2002.391970345135</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J31" t="n">
-        <v>2002.391970345135</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K31" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L31" t="n">
-        <v>2185.635887283474</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M31" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N31" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O31" t="n">
-        <v>2597.07271118827</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P31" t="n">
-        <v>2676.55532870389</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q31" t="n">
-        <v>2676.55532870389</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R31" t="n">
-        <v>2676.55532870389</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S31" t="n">
-        <v>2519.292236572671</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T31" t="n">
-        <v>2291.299872622622</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U31" t="n">
-        <v>2002.391970345135</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V31" t="n">
-        <v>2002.391970345135</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W31" t="n">
-        <v>2002.391970345135</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="X31" t="n">
-        <v>2002.391970345135</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Y31" t="n">
-        <v>2002.391970345135</v>
+        <v>727.6944649328329</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>784.4299231736143</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="C32" t="n">
-        <v>413.7379073362984</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="D32" t="n">
-        <v>53.5311065740778</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="E32" t="n">
-        <v>53.5311065740778</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F32" t="n">
-        <v>53.5311065740778</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G32" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H32" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I32" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J32" t="n">
         <v>167.7421803733073</v>
@@ -6715,37 +6715,37 @@
         <v>1825.656916993542</v>
       </c>
       <c r="O32" t="n">
-        <v>2223.650474008049</v>
+        <v>2223.65047400805</v>
       </c>
       <c r="P32" t="n">
         <v>2526.389973845557</v>
       </c>
       <c r="Q32" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R32" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S32" t="n">
-        <v>2443.531235093137</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.358514782327</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U32" t="n">
-        <v>1970.451037928298</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="V32" t="n">
-        <v>1638.599299016662</v>
+        <v>1871.623392627416</v>
       </c>
       <c r="W32" t="n">
-        <v>1284.528473763577</v>
+        <v>1517.55256737433</v>
       </c>
       <c r="X32" t="n">
-        <v>909.9207978735069</v>
+        <v>1142.94489148426</v>
       </c>
       <c r="Y32" t="n">
-        <v>909.9207978735069</v>
+        <v>882.6034401560701</v>
       </c>
     </row>
     <row r="33">
@@ -6776,16 +6776,16 @@
         <v>115.4714096068661</v>
       </c>
       <c r="I33" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J33" t="n">
-        <v>53.5311065740778</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K33" t="n">
-        <v>239.7918714752596</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L33" t="n">
-        <v>645.0924182088986</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M33" t="n">
         <v>1170.859233530005</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>438.7865626553464</v>
+        <v>370.9563748604498</v>
       </c>
       <c r="C34" t="n">
-        <v>438.7865626553464</v>
+        <v>370.9563748604498</v>
       </c>
       <c r="D34" t="n">
-        <v>438.7865626553464</v>
+        <v>370.9563748604498</v>
       </c>
       <c r="E34" t="n">
-        <v>438.7865626553464</v>
+        <v>222.497158523885</v>
       </c>
       <c r="F34" t="n">
-        <v>438.7865626553464</v>
+        <v>222.497158523885</v>
       </c>
       <c r="G34" t="n">
-        <v>269.8205107055392</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H34" t="n">
-        <v>112.0607240556079</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I34" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J34" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K34" t="n">
-        <v>109.4344173802942</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L34" t="n">
-        <v>236.7750235124169</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M34" t="n">
         <v>381.630737830651</v>
       </c>
       <c r="N34" t="n">
-        <v>528.1833689256791</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O34" t="n">
-        <v>648.2118474172127</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P34" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q34" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R34" t="n">
-        <v>727.6944649328328</v>
+        <v>659.9387757568292</v>
       </c>
       <c r="S34" t="n">
-        <v>727.6944649328328</v>
+        <v>659.9387757568292</v>
       </c>
       <c r="T34" t="n">
-        <v>727.6944649328328</v>
+        <v>659.9387757568292</v>
       </c>
       <c r="U34" t="n">
-        <v>438.7865626553464</v>
+        <v>659.9387757568292</v>
       </c>
       <c r="V34" t="n">
-        <v>438.7865626553464</v>
+        <v>659.9387757568292</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7865626553464</v>
+        <v>370.9563748604498</v>
       </c>
       <c r="X34" t="n">
-        <v>438.7865626553464</v>
+        <v>370.9563748604498</v>
       </c>
       <c r="Y34" t="n">
-        <v>438.7865626553464</v>
+        <v>370.9563748604498</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1582.825780987582</v>
+        <v>1251.006965692021</v>
       </c>
       <c r="C35" t="n">
-        <v>1212.133765150267</v>
+        <v>1158.820402816424</v>
       </c>
       <c r="D35" t="n">
-        <v>851.9269643880459</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="E35" t="n">
-        <v>464.9390494837151</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="F35" t="n">
-        <v>53.5311065740778</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="G35" t="n">
-        <v>53.5311065740778</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H35" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I35" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J35" t="n">
-        <v>167.7421803733073</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K35" t="n">
-        <v>461.191566563293</v>
+        <v>461.1915665632929</v>
       </c>
       <c r="L35" t="n">
-        <v>877.2105568248483</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M35" t="n">
         <v>1355.324135626645</v>
@@ -6952,37 +6952,37 @@
         <v>1825.656916993542</v>
       </c>
       <c r="O35" t="n">
-        <v>2223.650474008049</v>
+        <v>2223.65047400805</v>
       </c>
       <c r="P35" t="n">
         <v>2526.389973845557</v>
       </c>
       <c r="Q35" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R35" t="n">
-        <v>2676.55532870389</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S35" t="n">
-        <v>2676.55532870389</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T35" t="n">
-        <v>2676.55532870389</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="U35" t="n">
-        <v>2676.55532870389</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="V35" t="n">
-        <v>2676.55532870389</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="W35" t="n">
-        <v>2676.55532870389</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="X35" t="n">
-        <v>2361.011116081149</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="Y35" t="n">
-        <v>1970.418114312224</v>
+        <v>1638.599299016663</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>115.4714096068661</v>
       </c>
       <c r="I36" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J36" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K36" t="n">
-        <v>309.7001854454656</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L36" t="n">
         <v>715.0007321791047</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2200.105808567822</v>
+        <v>687.6185711644972</v>
       </c>
       <c r="C37" t="n">
-        <v>2031.078987425194</v>
+        <v>518.5917500218686</v>
       </c>
       <c r="D37" t="n">
-        <v>2002.391970345135</v>
+        <v>518.5917500218686</v>
       </c>
       <c r="E37" t="n">
-        <v>2002.391970345135</v>
+        <v>370.1325336853038</v>
       </c>
       <c r="F37" t="n">
-        <v>2002.391970345135</v>
+        <v>222.497158523885</v>
       </c>
       <c r="G37" t="n">
-        <v>2002.391970345135</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H37" t="n">
-        <v>2002.391970345135</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I37" t="n">
-        <v>2002.391970345135</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J37" t="n">
-        <v>2002.391970345135</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K37" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L37" t="n">
-        <v>2185.635887283474</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M37" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N37" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O37" t="n">
-        <v>2597.07271118827</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P37" t="n">
-        <v>2676.55532870389</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q37" t="n">
-        <v>2676.55532870389</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R37" t="n">
-        <v>2676.55532870389</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S37" t="n">
-        <v>2676.55532870389</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T37" t="n">
-        <v>2676.55532870389</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U37" t="n">
-        <v>2676.55532870389</v>
+        <v>687.6185711644972</v>
       </c>
       <c r="V37" t="n">
-        <v>2421.064064999911</v>
+        <v>687.6185711644972</v>
       </c>
       <c r="W37" t="n">
-        <v>2421.064064999911</v>
+        <v>687.6185711644972</v>
       </c>
       <c r="X37" t="n">
-        <v>2421.064064999911</v>
+        <v>687.6185711644972</v>
       </c>
       <c r="Y37" t="n">
-        <v>2200.105808567822</v>
+        <v>687.6185711644972</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>784.4299231736143</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="C38" t="n">
-        <v>413.7379073362984</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="D38" t="n">
-        <v>53.53110657407781</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="E38" t="n">
-        <v>53.53110657407781</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F38" t="n">
-        <v>53.53110657407781</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G38" t="n">
         <v>53.53110657407781</v>
@@ -7180,7 +7180,7 @@
         <v>461.1915665632929</v>
       </c>
       <c r="L38" t="n">
-        <v>877.2105568248481</v>
+        <v>877.2105568248483</v>
       </c>
       <c r="M38" t="n">
         <v>1355.324135626645</v>
@@ -7198,28 +7198,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R38" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S38" t="n">
-        <v>2676.555328703891</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T38" t="n">
-        <v>2545.201236264365</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="U38" t="n">
-        <v>2291.293759410336</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="V38" t="n">
-        <v>2291.293759410336</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="W38" t="n">
-        <v>1937.222934157251</v>
+        <v>1647.804117815065</v>
       </c>
       <c r="X38" t="n">
-        <v>1562.615258267181</v>
+        <v>1273.196441924995</v>
       </c>
       <c r="Y38" t="n">
-        <v>1172.022256498256</v>
+        <v>882.6034401560701</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>979.4794979670861</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C39" t="n">
         <v>806.7263828889031</v>
@@ -7265,13 +7265,13 @@
         <v>1316.572925812729</v>
       </c>
       <c r="N39" t="n">
-        <v>1871.653956270832</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O39" t="n">
-        <v>2311.81663656517</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P39" t="n">
-        <v>2648.659451850061</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q39" t="n">
         <v>2676.555328703891</v>
@@ -7298,7 +7298,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y39" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>438.7120640364536</v>
+        <v>370.1325336853038</v>
       </c>
       <c r="C40" t="n">
-        <v>438.7120640364536</v>
+        <v>370.1325336853038</v>
       </c>
       <c r="D40" t="n">
-        <v>438.7120640364536</v>
+        <v>370.1325336853038</v>
       </c>
       <c r="E40" t="n">
-        <v>438.7120640364536</v>
+        <v>370.1325336853038</v>
       </c>
       <c r="F40" t="n">
-        <v>380.2569451738162</v>
+        <v>222.497158523885</v>
       </c>
       <c r="G40" t="n">
-        <v>211.290893224009</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H40" t="n">
         <v>53.53110657407781</v>
@@ -7377,7 +7377,7 @@
         <v>438.7120640364536</v>
       </c>
       <c r="Y40" t="n">
-        <v>438.7120640364536</v>
+        <v>370.1325336853038</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1364.084496296101</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="C41" t="n">
-        <v>1364.084496296101</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="D41" t="n">
-        <v>1364.084496296101</v>
+        <v>1278.392498254442</v>
       </c>
       <c r="E41" t="n">
-        <v>1364.084496296101</v>
+        <v>952.6765533864634</v>
       </c>
       <c r="F41" t="n">
         <v>952.6765533864634</v>
@@ -7411,13 +7411,13 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J41" t="n">
-        <v>167.7421803733072</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K41" t="n">
-        <v>461.1915665632927</v>
+        <v>461.1915665632929</v>
       </c>
       <c r="L41" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248483</v>
       </c>
       <c r="M41" t="n">
         <v>1355.324135626645</v>
@@ -7450,13 +7450,13 @@
         <v>1638.599299016663</v>
       </c>
       <c r="W41" t="n">
-        <v>1364.084496296101</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="X41" t="n">
-        <v>1364.084496296101</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="Y41" t="n">
-        <v>1364.084496296101</v>
+        <v>1638.599299016663</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C42" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D42" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E42" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F42" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G42" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707585</v>
       </c>
       <c r="H42" t="n">
         <v>115.4714096068661</v>
@@ -7502,13 +7502,13 @@
         <v>1316.572925812729</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.940263988108</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O42" t="n">
-        <v>2166.102944282447</v>
+        <v>2311.81663656517</v>
       </c>
       <c r="P42" t="n">
-        <v>2502.945759567337</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q42" t="n">
         <v>2676.555328703891</v>
@@ -7517,25 +7517,25 @@
         <v>2626.774708455267</v>
       </c>
       <c r="S42" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T42" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U42" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V42" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W42" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X42" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y42" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2298.486561843119</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="C43" t="n">
-        <v>2298.486561843119</v>
+        <v>269.685242893825</v>
       </c>
       <c r="D43" t="n">
-        <v>2298.486561843119</v>
+        <v>269.685242893825</v>
       </c>
       <c r="E43" t="n">
-        <v>2150.027345506554</v>
+        <v>269.685242893825</v>
       </c>
       <c r="F43" t="n">
-        <v>2002.391970345136</v>
+        <v>269.685242893825</v>
       </c>
       <c r="G43" t="n">
-        <v>2002.391970345136</v>
+        <v>269.685242893825</v>
       </c>
       <c r="H43" t="n">
-        <v>2002.391970345136</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="I43" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J43" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K43" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L43" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M43" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N43" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O43" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P43" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q43" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R43" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S43" t="n">
-        <v>2526.478925793168</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T43" t="n">
-        <v>2298.486561843119</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U43" t="n">
-        <v>2298.486561843119</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V43" t="n">
-        <v>2298.486561843119</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W43" t="n">
-        <v>2298.486561843119</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="X43" t="n">
-        <v>2298.486561843119</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="Y43" t="n">
-        <v>2298.486561843119</v>
+        <v>438.7120640364536</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2288.962995379249</v>
+        <v>2327.908276467708</v>
       </c>
       <c r="C44" t="n">
-        <v>1918.270979541933</v>
+        <v>1957.216260630392</v>
       </c>
       <c r="D44" t="n">
-        <v>1558.064178779713</v>
+        <v>1597.009459868171</v>
       </c>
       <c r="E44" t="n">
-        <v>1364.084496296101</v>
+        <v>1210.021544963841</v>
       </c>
       <c r="F44" t="n">
-        <v>952.6765533864634</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="G44" t="n">
-        <v>535.0121627141084</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H44" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I44" t="n">
         <v>53.53110657407781</v>
@@ -7654,7 +7654,7 @@
         <v>461.1915665632929</v>
       </c>
       <c r="L44" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248483</v>
       </c>
       <c r="M44" t="n">
         <v>1355.324135626645</v>
@@ -7672,28 +7672,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R44" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S44" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T44" t="n">
-        <v>2676.555328703891</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="U44" t="n">
-        <v>2676.555328703891</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="V44" t="n">
-        <v>2676.555328703891</v>
+        <v>2327.908276467708</v>
       </c>
       <c r="W44" t="n">
-        <v>2676.555328703891</v>
+        <v>2327.908276467708</v>
       </c>
       <c r="X44" t="n">
-        <v>2676.555328703891</v>
+        <v>2327.908276467708</v>
       </c>
       <c r="Y44" t="n">
-        <v>2676.555328703891</v>
+        <v>2327.908276467708</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.4794979670861</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C45" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D45" t="n">
-        <v>659.1380762478473</v>
+        <v>659.138076247847</v>
       </c>
       <c r="E45" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507018</v>
       </c>
       <c r="F45" t="n">
         <v>356.5727572673186</v>
@@ -7727,25 +7727,25 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J45" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K45" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L45" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M45" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N45" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O45" t="n">
-        <v>2236.011258252653</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P45" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q45" t="n">
         <v>2676.555328703891</v>
@@ -7772,7 +7772,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>190.2159809393632</v>
+        <v>509.436941632417</v>
       </c>
       <c r="C46" t="n">
-        <v>190.2159809393632</v>
+        <v>509.436941632417</v>
       </c>
       <c r="D46" t="n">
-        <v>190.2159809393632</v>
+        <v>358.9262683854278</v>
       </c>
       <c r="E46" t="n">
-        <v>190.2159809393632</v>
+        <v>358.9262683854278</v>
       </c>
       <c r="F46" t="n">
-        <v>190.2159809393632</v>
+        <v>211.290893224009</v>
       </c>
       <c r="G46" t="n">
-        <v>190.2159809393632</v>
+        <v>211.290893224009</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2159809393632</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I46" t="n">
         <v>53.53110657407781</v>
@@ -7833,25 +7833,25 @@
         <v>727.6944649328329</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8853266532925</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T46" t="n">
-        <v>285.8929627032434</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U46" t="n">
-        <v>190.2159809393632</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V46" t="n">
-        <v>190.2159809393632</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W46" t="n">
-        <v>190.2159809393632</v>
+        <v>509.436941632417</v>
       </c>
       <c r="X46" t="n">
-        <v>190.2159809393632</v>
+        <v>509.436941632417</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.2159809393632</v>
+        <v>509.436941632417</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>268.7846244334939</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L2" t="n">
-        <v>284.0692742603754</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M2" t="n">
-        <v>278.7845970612288</v>
+        <v>272.5352758302076</v>
       </c>
       <c r="N2" t="n">
-        <v>271.6254354402928</v>
+        <v>277.8747566713141</v>
       </c>
       <c r="O2" t="n">
-        <v>224.3457561361446</v>
+        <v>278.5427758007825</v>
       </c>
       <c r="P2" t="n">
-        <v>225.4521708613878</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q2" t="n">
         <v>220.8075902863009</v>
@@ -8060,25 +8060,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>178.9346533383041</v>
       </c>
       <c r="L3" t="n">
-        <v>189.2875399500152</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
         <v>192.7777027386057</v>
       </c>
       <c r="N3" t="n">
-        <v>172.5974196195541</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
-        <v>193.2283579979712</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8218,7 +8218,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>214.587604768856</v>
+        <v>268.7846244334939</v>
       </c>
       <c r="L5" t="n">
         <v>284.0692742603754</v>
@@ -8227,16 +8227,16 @@
         <v>278.7845970612288</v>
       </c>
       <c r="N5" t="n">
-        <v>277.8747566713141</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O5" t="n">
-        <v>272.2934545697612</v>
+        <v>276.3529972284738</v>
       </c>
       <c r="P5" t="n">
         <v>225.4521708613878</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8294,13 +8294,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
         <v>188.5924226646379</v>
       </c>
       <c r="L6" t="n">
-        <v>179.6297706236815</v>
+        <v>189.2875399500152</v>
       </c>
       <c r="M6" t="n">
         <v>192.7777027386057</v>
@@ -8309,10 +8309,10 @@
         <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
-        <v>139.0313383333333</v>
+        <v>191.0385794256626</v>
       </c>
       <c r="P6" t="n">
-        <v>184.8220668936099</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
         <v>136.482229733871</v>
@@ -8455,25 +8455,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>332.7381592401983</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
-        <v>348.0228090670798</v>
+        <v>348.0228090670791</v>
       </c>
       <c r="M8" t="n">
-        <v>333.9048294326007</v>
+        <v>342.7381318679325</v>
       </c>
       <c r="N8" t="n">
-        <v>223.6777370066762</v>
+        <v>341.8282914780177</v>
       </c>
       <c r="O8" t="n">
-        <v>342.4963106074869</v>
+        <v>337.7225508308662</v>
       </c>
       <c r="P8" t="n">
         <v>225.4521708613878</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8534,25 +8534,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>252.5459574713423</v>
+        <v>252.5459574713415</v>
       </c>
       <c r="L9" t="n">
-        <v>253.2410747567197</v>
+        <v>253.2410747567189</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>162.4913375032523</v>
       </c>
       <c r="N9" t="n">
-        <v>233.9669732219472</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
         <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
-        <v>248.7756017003143</v>
+        <v>248.7756017003135</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789564</v>
       </c>
       <c r="K11" t="n">
         <v>337.1112290740114</v>
@@ -8768,7 +8768,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>54.56358754946164</v>
+        <v>54.56358754946163</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8789,7 +8789,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>147.8659206895198</v>
+        <v>147.8659206895194</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>175.8604797789565</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
         <v>337.1112290740114</v>
@@ -8947,7 +8947,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863009</v>
+        <v>220.8075902863007</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9005,7 +9005,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9017,7 +9017,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569687</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>147.8659206895198</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.8604797789565</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
         <v>337.1112290740114</v>
@@ -9184,7 +9184,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>220.8075902863009</v>
+        <v>220.8075902863007</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9263,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>147.8659206895198</v>
+        <v>71.29483148495541</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9412,13 +9412,13 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N20" t="n">
-        <v>454.8408013884634</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O20" t="n">
         <v>396.0321885132552</v>
       </c>
       <c r="P20" t="n">
-        <v>334.6706564983419</v>
+        <v>334.6706564983421</v>
       </c>
       <c r="Q20" t="n">
         <v>220.8075902863009</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9728,7 +9728,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>427.901610761532</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>54.56358754946166</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9965,7 +9965,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>147.8659206895198</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
@@ -10199,7 +10199,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>484.3332662999999</v>
+        <v>413.7188077442362</v>
       </c>
       <c r="N30" t="n">
         <v>498.5160693172957</v>
@@ -10208,7 +10208,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>184.015731625208</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
         <v>218.4803792452831</v>
@@ -10427,16 +10427,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>54.56358754946166</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
-        <v>204.4293879373181</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>484.3332662999999</v>
+        <v>337.1477185396726</v>
       </c>
       <c r="N33" t="n">
         <v>498.5160693172957</v>
@@ -10591,7 +10591,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L35" t="n">
-        <v>434.3676631324684</v>
+        <v>434.3676631324682</v>
       </c>
       <c r="M35" t="n">
         <v>467.4940748325458</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>54.56358754946166</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10840,7 +10840,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P38" t="n">
-        <v>334.6706564983419</v>
+        <v>334.6706564983421</v>
       </c>
       <c r="Q38" t="n">
         <v>220.8075902863009</v>
@@ -10913,7 +10913,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -10922,7 +10922,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.29483148495635</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789565</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
         <v>337.1112290740114</v>
@@ -11068,7 +11068,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M41" t="n">
-        <v>467.4940748325458</v>
+        <v>467.4940748325457</v>
       </c>
       <c r="N41" t="n">
         <v>454.8408013884635</v>
@@ -11150,7 +11150,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>351.3305215569685</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>71.29483148495635</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11302,7 +11302,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
-        <v>434.3676631324682</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M44" t="n">
         <v>467.4940748325458</v>
@@ -11317,7 +11317,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.8075902863009</v>
+        <v>220.8075902863008</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11387,7 +11387,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -11396,7 +11396,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>147.8659206895198</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>265.2908650873551</v>
       </c>
       <c r="E11" t="n">
         <v>383.1180357552875</v>
@@ -23272,13 +23272,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>324.1439237596927</v>
       </c>
       <c r="I11" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>198.4926700073889</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
-        <v>124.8875534467961</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
         <v>149.0055665145194</v>
@@ -23439,7 +23439,7 @@
         <v>135.3180256216325</v>
       </c>
       <c r="J13" t="n">
-        <v>45.48578169199548</v>
+        <v>45.48578169199547</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.413771051777</v>
+        <v>28.41377105177699</v>
       </c>
       <c r="R13" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>211.671046896745</v>
@@ -23472,19 +23472,19 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0188232547115</v>
+        <v>50.50923363669233</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>114.4526668037325</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H14" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>174.714014505568</v>
       </c>
       <c r="T14" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3684020854885</v>
@@ -23560,7 +23560,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>17.08963201812895</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>180.0836914906838</v>
+        <v>44.50659028332646</v>
       </c>
       <c r="C16" t="n">
         <v>167.3365529312023</v>
@@ -23667,7 +23667,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>156.1821887834319</v>
@@ -23676,7 +23676,7 @@
         <v>135.3180256216325</v>
       </c>
       <c r="J16" t="n">
-        <v>45.48578169199548</v>
+        <v>45.48578169199547</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.413771051777</v>
+        <v>28.41377105177699</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T16" t="n">
-        <v>201.8001439565705</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23721,7 +23721,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23743,16 +23743,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>413.4877467656314</v>
+        <v>11.84025276661515</v>
       </c>
       <c r="H17" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3.730846184302692</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.97983816907738</v>
+        <v>55.97983816907737</v>
       </c>
       <c r="S17" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T17" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>124.8273919459029</v>
+        <v>116.5070539527795</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>135.3180256216325</v>
       </c>
       <c r="J19" t="n">
-        <v>45.48578169199548</v>
+        <v>45.48578169199547</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.413771051777</v>
+        <v>28.41377105177699</v>
       </c>
       <c r="R19" t="n">
         <v>145.8195582697328</v>
@@ -23955,10 +23955,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>383.1180357552875</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>323.7559630520992</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>359.6428876109729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24177,19 +24177,19 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T22" t="n">
         <v>225.7124403105487</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>157.6260264338987</v>
       </c>
       <c r="V22" t="n">
-        <v>83.20449644322815</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>371.2123970813083</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.714014505568</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>250.732219207546</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24375,16 +24375,16 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.2763914303091</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1821887834319</v>
+        <v>56.25633429441289</v>
       </c>
       <c r="I25" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>45.48578169199548</v>
@@ -24417,19 +24417,19 @@
         <v>211.671046896745</v>
       </c>
       <c r="T25" t="n">
-        <v>70.52365235510592</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>160.9553178904214</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>324.1439237596927</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>216.980993107702</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>78.46160847288479</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>104.5109922611412</v>
       </c>
       <c r="D28" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>4.659359134890394</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>45.48578169199548</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.41377105177701</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R28" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T28" t="n">
         <v>225.7124403105487</v>
@@ -24685,22 +24685,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>266.7599643378828</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>178.1471031213856</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S29" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T29" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3684020854885</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.0836914906838</v>
+        <v>97.29582670358442</v>
       </c>
       <c r="C31" t="n">
         <v>167.3365529312023</v>
@@ -24846,19 +24846,19 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.2763914303091</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>45.48578169199548</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.41377105177701</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R31" t="n">
         <v>145.8195582697328</v>
       </c>
       <c r="S31" t="n">
-        <v>55.98058568683837</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>259.4804440385013</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>324.1439237596927</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>128.9490349363275</v>
       </c>
     </row>
     <row r="33">
@@ -25083,7 +25083,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>146.1590214098045</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I34" t="n">
-        <v>77.37370431491772</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J34" t="n">
         <v>45.48578169199548</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.41377105177701</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R34" t="n">
-        <v>145.8195582697328</v>
+        <v>78.74142598548906</v>
       </c>
       <c r="S34" t="n">
         <v>211.671046896745</v>
@@ -25131,13 +25131,13 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>275.7203984321011</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>152.5223218189376</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.9798381690774</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>58.47282863465557</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>120.6054196052617</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1821887834319</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.41377105177701</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R37" t="n">
         <v>145.8195582697328</v>
@@ -25368,10 +25368,10 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0188232547115</v>
+        <v>246.3436884240592</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
         <v>286.0925768874155</v>
@@ -25380,7 +25380,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>324.1439237596927</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>86.94044159257163</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>31.10966608845382</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>88.28845373579348</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I40" t="n">
         <v>135.3180256216325</v>
@@ -25617,7 +25617,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.7486738677682</v>
+        <v>150.8549388201299</v>
       </c>
     </row>
     <row r="41">
@@ -25633,13 +25633,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>60.65925033598847</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>78.76046230719811</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
         <v>370.8615991311694</v>
@@ -25788,25 +25788,25 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
         <v>167.2763914303091</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1821887834319</v>
+        <v>77.50761944851469</v>
       </c>
       <c r="I43" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>45.48578169199548</v>
@@ -25836,10 +25836,10 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S43" t="n">
-        <v>63.09540801513007</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U43" t="n">
         <v>286.0188232547115</v>
@@ -25848,7 +25848,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>191.0781500965117</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T44" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3684020854885</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>256.333471085478</v>
       </c>
       <c r="W44" t="n">
         <v>350.5301170005546</v>
@@ -26028,22 +26028,22 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.2763914303091</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J46" t="n">
         <v>45.48578169199548</v>
@@ -26073,19 +26073,19 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U46" t="n">
-        <v>191.2986113084702</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>70.01762882000378</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>936535.6830784247</v>
+        <v>936535.6830784245</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693850.4581530133</v>
+        <v>693850.4581530131</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693850.4581530131</v>
+        <v>693850.458153013</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>693850.4581530131</v>
+        <v>693850.458153013</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>693850.4581530133</v>
+        <v>693850.458153013</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>693850.4581530133</v>
+        <v>693850.458153013</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>693850.458153013</v>
+        <v>693850.4581530131</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>693850.4581530133</v>
+        <v>693850.458153013</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>693850.458153013</v>
+        <v>693850.4581530131</v>
       </c>
     </row>
     <row r="15">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549395.6008150823</v>
+        <v>549395.6008150822</v>
       </c>
       <c r="C2" t="n">
-        <v>549395.6008150822</v>
+        <v>549395.6008150824</v>
       </c>
       <c r="D2" t="n">
-        <v>549395.6008150822</v>
+        <v>549395.600815082</v>
       </c>
       <c r="E2" t="n">
         <v>383751.3645599863</v>
       </c>
       <c r="F2" t="n">
+        <v>383751.3645599862</v>
+      </c>
+      <c r="G2" t="n">
+        <v>383751.3645599861</v>
+      </c>
+      <c r="H2" t="n">
         <v>383751.3645599863</v>
       </c>
-      <c r="G2" t="n">
-        <v>383751.3645599863</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>383751.3645599864</v>
       </c>
-      <c r="I2" t="n">
-        <v>383751.3645599863</v>
-      </c>
       <c r="J2" t="n">
-        <v>383751.3645599865</v>
+        <v>383751.3645599862</v>
       </c>
       <c r="K2" t="n">
         <v>383751.3645599863</v>
       </c>
       <c r="L2" t="n">
-        <v>383751.3645599863</v>
+        <v>383751.3645599865</v>
       </c>
       <c r="M2" t="n">
-        <v>383751.3645599863</v>
+        <v>383751.3645599864</v>
       </c>
       <c r="N2" t="n">
-        <v>383751.3645599863</v>
+        <v>383751.3645599865</v>
       </c>
       <c r="O2" t="n">
         <v>383751.3645599863</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18162.66782107245</v>
+        <v>18162.66782107244</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19865.88651700659</v>
+        <v>19865.88651700635</v>
       </c>
       <c r="E3" t="n">
-        <v>437706.8631331107</v>
+        <v>437706.863133111</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14180.32501313448</v>
+        <v>14180.32501313451</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16186.06407776363</v>
+        <v>16186.06407776343</v>
       </c>
       <c r="M3" t="n">
-        <v>137308.4827571047</v>
+        <v>137308.4827571049</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>381012.7287872445</v>
       </c>
       <c r="D4" t="n">
-        <v>370727.8175948969</v>
+        <v>370727.8175948971</v>
       </c>
       <c r="E4" t="n">
-        <v>83200.25464187382</v>
+        <v>83200.25464187381</v>
       </c>
       <c r="F4" t="n">
         <v>83200.25464187382</v>
       </c>
       <c r="G4" t="n">
-        <v>83200.25464187382</v>
+        <v>83200.25464187381</v>
       </c>
       <c r="H4" t="n">
         <v>83200.25464187382</v>
@@ -26444,10 +26444,10 @@
         <v>83200.25464187382</v>
       </c>
       <c r="K4" t="n">
-        <v>83200.25464187382</v>
+        <v>83200.25464187381</v>
       </c>
       <c r="L4" t="n">
-        <v>83200.25464187382</v>
+        <v>83200.25464187381</v>
       </c>
       <c r="M4" t="n">
         <v>83200.25464187382</v>
@@ -26456,7 +26456,7 @@
         <v>83200.25464187382</v>
       </c>
       <c r="O4" t="n">
-        <v>83200.25464187381</v>
+        <v>83200.25464187382</v>
       </c>
       <c r="P4" t="n">
         <v>83200.25464187382</v>
@@ -26475,13 +26475,13 @@
         <v>36922.77879560999</v>
       </c>
       <c r="D5" t="n">
-        <v>40811.15371185761</v>
+        <v>40811.15371185757</v>
       </c>
       <c r="E5" t="n">
         <v>48096.64131659551</v>
       </c>
       <c r="F5" t="n">
-        <v>48096.64131659551</v>
+        <v>48096.64131659552</v>
       </c>
       <c r="G5" t="n">
         <v>48096.64131659551</v>
@@ -26493,16 +26493,16 @@
         <v>48096.64131659551</v>
       </c>
       <c r="J5" t="n">
-        <v>48096.6413165955</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="K5" t="n">
-        <v>48096.6413165955</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="L5" t="n">
-        <v>48096.6413165955</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="M5" t="n">
-        <v>48096.6413165955</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="N5" t="n">
         <v>48096.64131659551</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113297.4254111554</v>
+        <v>113297.4254111553</v>
       </c>
       <c r="C6" t="n">
-        <v>131460.0932322277</v>
+        <v>131460.0932322279</v>
       </c>
       <c r="D6" t="n">
-        <v>117990.7429913211</v>
+        <v>117990.742991321</v>
       </c>
       <c r="E6" t="n">
-        <v>-185252.3945315938</v>
+        <v>-191387.3662447457</v>
       </c>
       <c r="F6" t="n">
-        <v>252454.468601517</v>
+        <v>246319.4968883652</v>
       </c>
       <c r="G6" t="n">
-        <v>252454.468601517</v>
+        <v>246319.4968883651</v>
       </c>
       <c r="H6" t="n">
-        <v>252454.4686015171</v>
+        <v>246319.4968883653</v>
       </c>
       <c r="I6" t="n">
-        <v>252454.4686015169</v>
+        <v>246319.4968883654</v>
       </c>
       <c r="J6" t="n">
-        <v>238274.1435883827</v>
+        <v>232139.1718752307</v>
       </c>
       <c r="K6" t="n">
-        <v>252454.468601517</v>
+        <v>246319.4968883653</v>
       </c>
       <c r="L6" t="n">
-        <v>236268.4045237534</v>
+        <v>230133.4328106021</v>
       </c>
       <c r="M6" t="n">
-        <v>115145.9858444123</v>
+        <v>109011.0141312605</v>
       </c>
       <c r="N6" t="n">
-        <v>252454.4686015169</v>
+        <v>246319.4968883655</v>
       </c>
       <c r="O6" t="n">
-        <v>252454.468601517</v>
+        <v>246319.4968883652</v>
       </c>
       <c r="P6" t="n">
-        <v>252454.4686015169</v>
+        <v>246319.4968883652</v>
       </c>
     </row>
   </sheetData>
@@ -26761,16 +26761,16 @@
         <v>340.045886252127</v>
       </c>
       <c r="J3" t="n">
-        <v>340.0458862521269</v>
+        <v>340.045886252127</v>
       </c>
       <c r="K3" t="n">
-        <v>340.0458862521269</v>
+        <v>340.045886252127</v>
       </c>
       <c r="L3" t="n">
-        <v>340.0458862521269</v>
+        <v>340.045886252127</v>
       </c>
       <c r="M3" t="n">
-        <v>340.0458862521269</v>
+        <v>340.045886252127</v>
       </c>
       <c r="N3" t="n">
         <v>340.045886252127</v>
@@ -26795,13 +26795,13 @@
         <v>54.19701966463789</v>
       </c>
       <c r="D4" t="n">
-        <v>118.1505544713423</v>
+        <v>118.1505544713415</v>
       </c>
       <c r="E4" t="n">
         <v>669.1388321759727</v>
       </c>
       <c r="F4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759728</v>
       </c>
       <c r="G4" t="n">
         <v>669.1388321759727</v>
@@ -26813,16 +26813,16 @@
         <v>669.1388321759727</v>
       </c>
       <c r="J4" t="n">
-        <v>669.1388321759725</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="K4" t="n">
-        <v>669.1388321759725</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="L4" t="n">
-        <v>669.1388321759725</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="M4" t="n">
-        <v>669.1388321759725</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="N4" t="n">
         <v>669.1388321759727</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.95353480670441</v>
+        <v>63.95353480670363</v>
       </c>
       <c r="E4" t="n">
-        <v>550.9882777046304</v>
+        <v>550.9882777046312</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.19701966463776</v>
+        <v>54.19701966463788</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>63.95353480670441</v>
+        <v>63.95353480670363</v>
       </c>
       <c r="M4" t="n">
-        <v>550.9882777046304</v>
+        <v>550.9882777046312</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>63.95353480670441</v>
+        <v>63.95353480670363</v>
       </c>
       <c r="M4" t="n">
-        <v>550.9882777046304</v>
+        <v>550.9882777046312</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>366.9850956789426</v>
+        <v>312.7880760143047</v>
       </c>
       <c r="D2" t="n">
-        <v>356.6047327545984</v>
+        <v>302.4077130899605</v>
       </c>
       <c r="E2" t="n">
-        <v>335.3813008346744</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>353.096843815903</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>360.657745739193</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>87.65380303623918</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
         <v>205.8649517235392</v>
@@ -27435,7 +27435,7 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>225.8896575403031</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -27447,7 +27447,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.6870717512358</v>
+        <v>332.4900520865979</v>
       </c>
     </row>
     <row r="3">
@@ -27472,7 +27472,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>88.28647528442929</v>
+        <v>81.82619054040443</v>
       </c>
       <c r="H3" t="n">
         <v>56.26549585749488</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40.49796009645333</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
@@ -27517,7 +27517,7 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>184.1719961190421</v>
       </c>
       <c r="W3" t="n">
         <v>249.98934675</v>
@@ -27545,22 +27545,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E4" t="n">
-        <v>146.9746241731992</v>
+        <v>130.6525565255045</v>
       </c>
       <c r="F4" t="n">
-        <v>146.1590214098045</v>
+        <v>91.9620017451666</v>
       </c>
       <c r="G4" t="n">
-        <v>151.5675212824134</v>
+        <v>113.6925692654702</v>
       </c>
       <c r="H4" t="n">
         <v>107.4370523442789</v>
       </c>
       <c r="I4" t="n">
-        <v>99.56152713276573</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>34.64182526314104</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
         <v>14.77440971783335</v>
@@ -27621,16 +27621,16 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D5" t="n">
-        <v>302.4077130899605</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>360.2164056944902</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>360.657745739193</v>
+        <v>375.0711710983211</v>
       </c>
       <c r="H5" t="n">
         <v>338.1439033881534</v>
@@ -27678,10 +27678,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>350.5301170005546</v>
+        <v>296.3330973359167</v>
       </c>
       <c r="X5" t="n">
-        <v>370.8615991311694</v>
+        <v>316.6645794665315</v>
       </c>
       <c r="Y5" t="n">
         <v>386.6870717512358</v>
@@ -27697,7 +27697,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>116.8285642627631</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
         <v>146.1124235746456</v>
@@ -27709,13 +27709,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>81.82619054040443</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>56.26549585749488</v>
       </c>
       <c r="I6" t="n">
-        <v>38.76680854485863</v>
+        <v>32.30652380083377</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>114.7645942410065</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
@@ -27757,10 +27757,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>202.252611829387</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>150.2646099438404</v>
       </c>
       <c r="Y6" t="n">
         <v>203.671151418586</v>
@@ -27800,7 +27800,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>25.56368021121028</v>
       </c>
       <c r="R7" t="n">
-        <v>173.3911476697823</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S7" t="n">
-        <v>206.0353393137279</v>
+        <v>168.1603872967846</v>
       </c>
       <c r="T7" t="n">
-        <v>174.1354463268698</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8552507264263</v>
+        <v>284.504612461203</v>
       </c>
       <c r="V7" t="n">
-        <v>198.7393314023013</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
         <v>286.0925768874155</v>
@@ -27858,25 +27858,25 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
-        <v>238.4541782832561</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>289.1433090091986</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>310.7877570254726</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>219.9933489168111</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>23.70026822953555</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>87.71439725219771</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>133.3272091052029</v>
       </c>
       <c r="V8" t="n">
-        <v>328.5332215225193</v>
+        <v>247.274119163096</v>
       </c>
       <c r="W8" t="n">
         <v>350.5301170005546</v>
@@ -27940,7 +27940,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>37.88287923583152</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
         <v>143.5062320835493</v>
@@ -27949,10 +27949,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>77.13151484820527</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>50.81105943430208</v>
+        <v>50.81105943430286</v>
       </c>
       <c r="T9" t="n">
-        <v>181.3224643417921</v>
+        <v>80.23197743692715</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
@@ -27994,7 +27994,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>131.8387922786585</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.9331370193415</v>
+        <v>61.93313701934228</v>
       </c>
       <c r="C10" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
-        <v>149.0055665145194</v>
+        <v>103.0174040620859</v>
       </c>
       <c r="E10" t="n">
         <v>146.9746241731992</v>
@@ -28037,7 +28037,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.9861016975021</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="11">
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.367018638199504</v>
+        <v>1.367018638199505</v>
       </c>
       <c r="H11" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I11" t="n">
-        <v>52.70198604918644</v>
+        <v>52.70198604918645</v>
       </c>
       <c r="J11" t="n">
         <v>116.0239981438853</v>
@@ -31770,22 +31770,22 @@
         <v>215.7257937476685</v>
       </c>
       <c r="M11" t="n">
-        <v>240.0365114547489</v>
+        <v>240.036511454749</v>
       </c>
       <c r="N11" t="n">
         <v>243.9205531605333</v>
       </c>
       <c r="O11" t="n">
-        <v>230.3272615769369</v>
+        <v>230.327261576937</v>
       </c>
       <c r="P11" t="n">
-        <v>196.5789889463866</v>
+        <v>196.5789889463867</v>
       </c>
       <c r="Q11" t="n">
-        <v>147.6226339658668</v>
+        <v>147.6226339658669</v>
       </c>
       <c r="R11" t="n">
-        <v>85.87098453179969</v>
+        <v>85.87098453179971</v>
       </c>
       <c r="S11" t="n">
         <v>31.15093721797124</v>
@@ -31794,7 +31794,7 @@
         <v>5.984124088718334</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1093614910559603</v>
+        <v>0.1093614910559604</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7314194534479713</v>
+        <v>0.7314194534479714</v>
       </c>
       <c r="H12" t="n">
-        <v>7.063972089879092</v>
+        <v>7.063972089879093</v>
       </c>
       <c r="I12" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J12" t="n">
-        <v>69.10309845053838</v>
+        <v>69.1030984505384</v>
       </c>
       <c r="K12" t="n">
         <v>118.1082018315525</v>
@@ -31861,7 +31861,7 @@
         <v>139.6690358079727</v>
       </c>
       <c r="Q12" t="n">
-        <v>93.36505163662174</v>
+        <v>93.36505163662176</v>
       </c>
       <c r="R12" t="n">
         <v>45.41216571495389</v>
@@ -31870,10 +31870,10 @@
         <v>13.58579554979016</v>
       </c>
       <c r="T12" t="n">
-        <v>2.94813367420476</v>
+        <v>2.948133674204761</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04811970088473497</v>
+        <v>0.04811970088473498</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6131974997989175</v>
+        <v>0.6131974997989176</v>
       </c>
       <c r="H13" t="n">
         <v>5.451883225484925</v>
@@ -31919,40 +31919,40 @@
         <v>18.44052117577109</v>
       </c>
       <c r="J13" t="n">
-        <v>43.35306323578346</v>
+        <v>43.35306323578347</v>
       </c>
       <c r="K13" t="n">
-        <v>71.2424004311833</v>
+        <v>71.24240043118331</v>
       </c>
       <c r="L13" t="n">
-        <v>91.16574465192271</v>
+        <v>91.16574465192272</v>
       </c>
       <c r="M13" t="n">
-        <v>96.12149535484302</v>
+        <v>96.12149535484303</v>
       </c>
       <c r="N13" t="n">
-        <v>93.83594103741078</v>
+        <v>93.83594103741079</v>
       </c>
       <c r="O13" t="n">
-        <v>86.6726793352143</v>
+        <v>86.67267933521431</v>
       </c>
       <c r="P13" t="n">
-        <v>74.16345033931631</v>
+        <v>74.16345033931633</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.34692882407117</v>
+        <v>51.34692882407118</v>
       </c>
       <c r="R13" t="n">
         <v>27.5715894000495</v>
       </c>
       <c r="S13" t="n">
-        <v>10.68636006467749</v>
+        <v>10.6863600646775</v>
       </c>
       <c r="T13" t="n">
-        <v>2.62002568095901</v>
+        <v>2.620025680959011</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03344713635266826</v>
+        <v>0.03344713635266827</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.367018638199504</v>
+        <v>1.367018638199505</v>
       </c>
       <c r="H14" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I14" t="n">
-        <v>52.70198604918644</v>
+        <v>52.70198604918645</v>
       </c>
       <c r="J14" t="n">
         <v>116.0239981438853</v>
@@ -32007,22 +32007,22 @@
         <v>215.7257937476685</v>
       </c>
       <c r="M14" t="n">
-        <v>240.0365114547489</v>
+        <v>240.036511454749</v>
       </c>
       <c r="N14" t="n">
         <v>243.9205531605333</v>
       </c>
       <c r="O14" t="n">
-        <v>230.3272615769369</v>
+        <v>230.327261576937</v>
       </c>
       <c r="P14" t="n">
-        <v>196.5789889463866</v>
+        <v>196.5789889463867</v>
       </c>
       <c r="Q14" t="n">
-        <v>147.6226339658668</v>
+        <v>147.6226339658669</v>
       </c>
       <c r="R14" t="n">
-        <v>85.87098453179969</v>
+        <v>85.87098453179971</v>
       </c>
       <c r="S14" t="n">
         <v>31.15093721797124</v>
@@ -32031,7 +32031,7 @@
         <v>5.984124088718334</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1093614910559603</v>
+        <v>0.1093614910559604</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7314194534479713</v>
+        <v>0.7314194534479714</v>
       </c>
       <c r="H15" t="n">
-        <v>7.063972089879092</v>
+        <v>7.063972089879093</v>
       </c>
       <c r="I15" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J15" t="n">
-        <v>69.10309845053838</v>
+        <v>69.1030984505384</v>
       </c>
       <c r="K15" t="n">
         <v>118.1082018315525</v>
@@ -32098,7 +32098,7 @@
         <v>139.6690358079727</v>
       </c>
       <c r="Q15" t="n">
-        <v>93.36505163662174</v>
+        <v>93.36505163662176</v>
       </c>
       <c r="R15" t="n">
         <v>45.41216571495389</v>
@@ -32107,10 +32107,10 @@
         <v>13.58579554979016</v>
       </c>
       <c r="T15" t="n">
-        <v>2.94813367420476</v>
+        <v>2.948133674204761</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04811970088473497</v>
+        <v>0.04811970088473498</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6131974997989175</v>
+        <v>0.6131974997989176</v>
       </c>
       <c r="H16" t="n">
         <v>5.451883225484925</v>
@@ -32156,40 +32156,40 @@
         <v>18.44052117577109</v>
       </c>
       <c r="J16" t="n">
-        <v>43.35306323578346</v>
+        <v>43.35306323578347</v>
       </c>
       <c r="K16" t="n">
-        <v>71.2424004311833</v>
+        <v>71.24240043118331</v>
       </c>
       <c r="L16" t="n">
-        <v>91.16574465192271</v>
+        <v>91.16574465192272</v>
       </c>
       <c r="M16" t="n">
-        <v>96.12149535484302</v>
+        <v>96.12149535484303</v>
       </c>
       <c r="N16" t="n">
-        <v>93.83594103741078</v>
+        <v>93.83594103741079</v>
       </c>
       <c r="O16" t="n">
-        <v>86.6726793352143</v>
+        <v>86.67267933521431</v>
       </c>
       <c r="P16" t="n">
-        <v>74.16345033931631</v>
+        <v>74.16345033931633</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.34692882407117</v>
+        <v>51.34692882407118</v>
       </c>
       <c r="R16" t="n">
         <v>27.5715894000495</v>
       </c>
       <c r="S16" t="n">
-        <v>10.68636006467749</v>
+        <v>10.6863600646775</v>
       </c>
       <c r="T16" t="n">
-        <v>2.62002568095901</v>
+        <v>2.620025680959011</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03344713635266826</v>
+        <v>0.03344713635266827</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.367018638199504</v>
+        <v>1.367018638199505</v>
       </c>
       <c r="H17" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I17" t="n">
-        <v>52.70198604918644</v>
+        <v>52.70198604918645</v>
       </c>
       <c r="J17" t="n">
         <v>116.0239981438853</v>
@@ -32244,22 +32244,22 @@
         <v>215.7257937476685</v>
       </c>
       <c r="M17" t="n">
-        <v>240.0365114547489</v>
+        <v>240.036511454749</v>
       </c>
       <c r="N17" t="n">
         <v>243.9205531605333</v>
       </c>
       <c r="O17" t="n">
-        <v>230.3272615769369</v>
+        <v>230.327261576937</v>
       </c>
       <c r="P17" t="n">
-        <v>196.5789889463866</v>
+        <v>196.5789889463867</v>
       </c>
       <c r="Q17" t="n">
-        <v>147.6226339658668</v>
+        <v>147.6226339658669</v>
       </c>
       <c r="R17" t="n">
-        <v>85.87098453179969</v>
+        <v>85.87098453179971</v>
       </c>
       <c r="S17" t="n">
         <v>31.15093721797124</v>
@@ -32268,7 +32268,7 @@
         <v>5.984124088718334</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1093614910559603</v>
+        <v>0.1093614910559604</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7314194534479713</v>
+        <v>0.7314194534479714</v>
       </c>
       <c r="H18" t="n">
-        <v>7.063972089879092</v>
+        <v>7.063972089879093</v>
       </c>
       <c r="I18" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J18" t="n">
-        <v>69.10309845053838</v>
+        <v>69.1030984505384</v>
       </c>
       <c r="K18" t="n">
         <v>118.1082018315525</v>
@@ -32335,7 +32335,7 @@
         <v>139.6690358079727</v>
       </c>
       <c r="Q18" t="n">
-        <v>93.36505163662174</v>
+        <v>93.36505163662176</v>
       </c>
       <c r="R18" t="n">
         <v>45.41216571495389</v>
@@ -32344,10 +32344,10 @@
         <v>13.58579554979016</v>
       </c>
       <c r="T18" t="n">
-        <v>2.94813367420476</v>
+        <v>2.948133674204761</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04811970088473497</v>
+        <v>0.04811970088473498</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6131974997989175</v>
+        <v>0.6131974997989176</v>
       </c>
       <c r="H19" t="n">
         <v>5.451883225484925</v>
@@ -32393,40 +32393,40 @@
         <v>18.44052117577109</v>
       </c>
       <c r="J19" t="n">
-        <v>43.35306323578346</v>
+        <v>43.35306323578347</v>
       </c>
       <c r="K19" t="n">
-        <v>71.2424004311833</v>
+        <v>71.24240043118331</v>
       </c>
       <c r="L19" t="n">
-        <v>91.16574465192271</v>
+        <v>91.16574465192272</v>
       </c>
       <c r="M19" t="n">
-        <v>96.12149535484302</v>
+        <v>96.12149535484303</v>
       </c>
       <c r="N19" t="n">
-        <v>93.83594103741078</v>
+        <v>93.83594103741079</v>
       </c>
       <c r="O19" t="n">
-        <v>86.6726793352143</v>
+        <v>86.67267933521431</v>
       </c>
       <c r="P19" t="n">
-        <v>74.16345033931631</v>
+        <v>74.16345033931633</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.34692882407117</v>
+        <v>51.34692882407118</v>
       </c>
       <c r="R19" t="n">
         <v>27.5715894000495</v>
       </c>
       <c r="S19" t="n">
-        <v>10.68636006467749</v>
+        <v>10.6863600646775</v>
       </c>
       <c r="T19" t="n">
-        <v>2.62002568095901</v>
+        <v>2.620025680959011</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03344713635266826</v>
+        <v>0.03344713635266827</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32949,7 +32949,7 @@
         <v>116.0239981438853</v>
       </c>
       <c r="K26" t="n">
-        <v>173.8898970988703</v>
+        <v>173.8898970988704</v>
       </c>
       <c r="L26" t="n">
         <v>215.7257937476685</v>
@@ -32958,7 +32958,7 @@
         <v>240.0365114547489</v>
       </c>
       <c r="N26" t="n">
-        <v>243.9205531605332</v>
+        <v>243.9205531605333</v>
       </c>
       <c r="O26" t="n">
         <v>230.3272615769369</v>
@@ -32970,13 +32970,13 @@
         <v>147.6226339658668</v>
       </c>
       <c r="R26" t="n">
-        <v>85.87098453179968</v>
+        <v>85.87098453179969</v>
       </c>
       <c r="S26" t="n">
-        <v>31.15093721797123</v>
+        <v>31.15093721797124</v>
       </c>
       <c r="T26" t="n">
-        <v>5.984124088718333</v>
+        <v>5.984124088718334</v>
       </c>
       <c r="U26" t="n">
         <v>0.1093614910559603</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7314194534479712</v>
+        <v>0.7314194534479713</v>
       </c>
       <c r="H27" t="n">
-        <v>7.063972089879091</v>
+        <v>7.063972089879092</v>
       </c>
       <c r="I27" t="n">
-        <v>25.18264346301129</v>
+        <v>25.1826434630113</v>
       </c>
       <c r="J27" t="n">
-        <v>69.10309845053837</v>
+        <v>69.10309845053838</v>
       </c>
       <c r="K27" t="n">
-        <v>118.1082018315524</v>
+        <v>118.1082018315525</v>
       </c>
       <c r="L27" t="n">
-        <v>158.8110528199202</v>
+        <v>158.8110528199203</v>
       </c>
       <c r="M27" t="n">
         <v>185.3250080074092</v>
@@ -33040,16 +33040,16 @@
         <v>190.2300095175932</v>
       </c>
       <c r="O27" t="n">
-        <v>174.0232942596144</v>
+        <v>174.0232942596145</v>
       </c>
       <c r="P27" t="n">
         <v>139.6690358079727</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.36505163662173</v>
+        <v>93.36505163662174</v>
       </c>
       <c r="R27" t="n">
-        <v>45.41216571495388</v>
+        <v>45.41216571495389</v>
       </c>
       <c r="S27" t="n">
         <v>13.58579554979016</v>
@@ -33095,37 +33095,37 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6131974997989174</v>
+        <v>0.6131974997989175</v>
       </c>
       <c r="H28" t="n">
-        <v>5.451883225484924</v>
+        <v>5.451883225484925</v>
       </c>
       <c r="I28" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J28" t="n">
-        <v>43.35306323578345</v>
+        <v>43.35306323578346</v>
       </c>
       <c r="K28" t="n">
         <v>71.2424004311833</v>
       </c>
       <c r="L28" t="n">
-        <v>91.16574465192269</v>
+        <v>91.16574465192271</v>
       </c>
       <c r="M28" t="n">
-        <v>96.12149535484301</v>
+        <v>96.12149535484302</v>
       </c>
       <c r="N28" t="n">
-        <v>93.83594103741075</v>
+        <v>93.83594103741078</v>
       </c>
       <c r="O28" t="n">
-        <v>86.67267933521428</v>
+        <v>86.6726793352143</v>
       </c>
       <c r="P28" t="n">
-        <v>74.1634503393163</v>
+        <v>74.16345033931631</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.34692882407116</v>
+        <v>51.34692882407117</v>
       </c>
       <c r="R28" t="n">
         <v>27.5715894000495</v>
@@ -33186,7 +33186,7 @@
         <v>116.0239981438853</v>
       </c>
       <c r="K29" t="n">
-        <v>173.8898970988703</v>
+        <v>173.8898970988704</v>
       </c>
       <c r="L29" t="n">
         <v>215.7257937476685</v>
@@ -33195,7 +33195,7 @@
         <v>240.0365114547489</v>
       </c>
       <c r="N29" t="n">
-        <v>243.9205531605332</v>
+        <v>243.9205531605333</v>
       </c>
       <c r="O29" t="n">
         <v>230.3272615769369</v>
@@ -33207,13 +33207,13 @@
         <v>147.6226339658668</v>
       </c>
       <c r="R29" t="n">
-        <v>85.87098453179968</v>
+        <v>85.87098453179969</v>
       </c>
       <c r="S29" t="n">
-        <v>31.15093721797123</v>
+        <v>31.15093721797124</v>
       </c>
       <c r="T29" t="n">
-        <v>5.984124088718333</v>
+        <v>5.984124088718334</v>
       </c>
       <c r="U29" t="n">
         <v>0.1093614910559603</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7314194534479712</v>
+        <v>0.7314194534479713</v>
       </c>
       <c r="H30" t="n">
-        <v>7.063972089879091</v>
+        <v>7.063972089879092</v>
       </c>
       <c r="I30" t="n">
-        <v>25.18264346301129</v>
+        <v>25.1826434630113</v>
       </c>
       <c r="J30" t="n">
-        <v>69.10309845053837</v>
+        <v>69.10309845053838</v>
       </c>
       <c r="K30" t="n">
-        <v>118.1082018315524</v>
+        <v>118.1082018315525</v>
       </c>
       <c r="L30" t="n">
-        <v>158.8110528199202</v>
+        <v>158.8110528199203</v>
       </c>
       <c r="M30" t="n">
         <v>185.3250080074092</v>
@@ -33277,16 +33277,16 @@
         <v>190.2300095175932</v>
       </c>
       <c r="O30" t="n">
-        <v>174.0232942596144</v>
+        <v>174.0232942596145</v>
       </c>
       <c r="P30" t="n">
         <v>139.6690358079727</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.36505163662173</v>
+        <v>93.36505163662174</v>
       </c>
       <c r="R30" t="n">
-        <v>45.41216571495388</v>
+        <v>45.41216571495389</v>
       </c>
       <c r="S30" t="n">
         <v>13.58579554979016</v>
@@ -33332,37 +33332,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6131974997989174</v>
+        <v>0.6131974997989175</v>
       </c>
       <c r="H31" t="n">
-        <v>5.451883225484924</v>
+        <v>5.451883225484925</v>
       </c>
       <c r="I31" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J31" t="n">
-        <v>43.35306323578345</v>
+        <v>43.35306323578346</v>
       </c>
       <c r="K31" t="n">
         <v>71.2424004311833</v>
       </c>
       <c r="L31" t="n">
-        <v>91.16574465192269</v>
+        <v>91.16574465192271</v>
       </c>
       <c r="M31" t="n">
-        <v>96.12149535484301</v>
+        <v>96.12149535484302</v>
       </c>
       <c r="N31" t="n">
-        <v>93.83594103741075</v>
+        <v>93.83594103741078</v>
       </c>
       <c r="O31" t="n">
-        <v>86.67267933521428</v>
+        <v>86.6726793352143</v>
       </c>
       <c r="P31" t="n">
-        <v>74.1634503393163</v>
+        <v>74.16345033931631</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.34692882407116</v>
+        <v>51.34692882407117</v>
       </c>
       <c r="R31" t="n">
         <v>27.5715894000495</v>
@@ -33423,7 +33423,7 @@
         <v>116.0239981438853</v>
       </c>
       <c r="K32" t="n">
-        <v>173.8898970988703</v>
+        <v>173.8898970988704</v>
       </c>
       <c r="L32" t="n">
         <v>215.7257937476685</v>
@@ -33432,7 +33432,7 @@
         <v>240.0365114547489</v>
       </c>
       <c r="N32" t="n">
-        <v>243.9205531605332</v>
+        <v>243.9205531605333</v>
       </c>
       <c r="O32" t="n">
         <v>230.3272615769369</v>
@@ -33444,13 +33444,13 @@
         <v>147.6226339658668</v>
       </c>
       <c r="R32" t="n">
-        <v>85.87098453179968</v>
+        <v>85.87098453179969</v>
       </c>
       <c r="S32" t="n">
-        <v>31.15093721797123</v>
+        <v>31.15093721797124</v>
       </c>
       <c r="T32" t="n">
-        <v>5.984124088718333</v>
+        <v>5.984124088718334</v>
       </c>
       <c r="U32" t="n">
         <v>0.1093614910559603</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7314194534479712</v>
+        <v>0.7314194534479713</v>
       </c>
       <c r="H33" t="n">
-        <v>7.063972089879091</v>
+        <v>7.063972089879092</v>
       </c>
       <c r="I33" t="n">
-        <v>25.18264346301129</v>
+        <v>25.1826434630113</v>
       </c>
       <c r="J33" t="n">
-        <v>69.10309845053837</v>
+        <v>69.10309845053838</v>
       </c>
       <c r="K33" t="n">
-        <v>118.1082018315524</v>
+        <v>118.1082018315525</v>
       </c>
       <c r="L33" t="n">
-        <v>158.8110528199202</v>
+        <v>158.8110528199203</v>
       </c>
       <c r="M33" t="n">
         <v>185.3250080074092</v>
@@ -33514,16 +33514,16 @@
         <v>190.2300095175932</v>
       </c>
       <c r="O33" t="n">
-        <v>174.0232942596144</v>
+        <v>174.0232942596145</v>
       </c>
       <c r="P33" t="n">
         <v>139.6690358079727</v>
       </c>
       <c r="Q33" t="n">
-        <v>93.36505163662173</v>
+        <v>93.36505163662174</v>
       </c>
       <c r="R33" t="n">
-        <v>45.41216571495388</v>
+        <v>45.41216571495389</v>
       </c>
       <c r="S33" t="n">
         <v>13.58579554979016</v>
@@ -33569,37 +33569,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6131974997989174</v>
+        <v>0.6131974997989175</v>
       </c>
       <c r="H34" t="n">
-        <v>5.451883225484924</v>
+        <v>5.451883225484925</v>
       </c>
       <c r="I34" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J34" t="n">
-        <v>43.35306323578345</v>
+        <v>43.35306323578346</v>
       </c>
       <c r="K34" t="n">
         <v>71.2424004311833</v>
       </c>
       <c r="L34" t="n">
-        <v>91.16574465192269</v>
+        <v>91.16574465192271</v>
       </c>
       <c r="M34" t="n">
-        <v>96.12149535484301</v>
+        <v>96.12149535484302</v>
       </c>
       <c r="N34" t="n">
-        <v>93.83594103741075</v>
+        <v>93.83594103741078</v>
       </c>
       <c r="O34" t="n">
-        <v>86.67267933521428</v>
+        <v>86.6726793352143</v>
       </c>
       <c r="P34" t="n">
-        <v>74.1634503393163</v>
+        <v>74.16345033931631</v>
       </c>
       <c r="Q34" t="n">
-        <v>51.34692882407116</v>
+        <v>51.34692882407117</v>
       </c>
       <c r="R34" t="n">
         <v>27.5715894000495</v>
@@ -33660,7 +33660,7 @@
         <v>116.0239981438853</v>
       </c>
       <c r="K35" t="n">
-        <v>173.8898970988703</v>
+        <v>173.8898970988704</v>
       </c>
       <c r="L35" t="n">
         <v>215.7257937476685</v>
@@ -33669,7 +33669,7 @@
         <v>240.0365114547489</v>
       </c>
       <c r="N35" t="n">
-        <v>243.9205531605332</v>
+        <v>243.9205531605333</v>
       </c>
       <c r="O35" t="n">
         <v>230.3272615769369</v>
@@ -33681,13 +33681,13 @@
         <v>147.6226339658668</v>
       </c>
       <c r="R35" t="n">
-        <v>85.87098453179968</v>
+        <v>85.87098453179969</v>
       </c>
       <c r="S35" t="n">
-        <v>31.15093721797123</v>
+        <v>31.15093721797124</v>
       </c>
       <c r="T35" t="n">
-        <v>5.984124088718333</v>
+        <v>5.984124088718334</v>
       </c>
       <c r="U35" t="n">
         <v>0.1093614910559603</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7314194534479712</v>
+        <v>0.7314194534479713</v>
       </c>
       <c r="H36" t="n">
-        <v>7.063972089879091</v>
+        <v>7.063972089879092</v>
       </c>
       <c r="I36" t="n">
-        <v>25.18264346301129</v>
+        <v>25.1826434630113</v>
       </c>
       <c r="J36" t="n">
-        <v>69.10309845053837</v>
+        <v>69.10309845053838</v>
       </c>
       <c r="K36" t="n">
-        <v>118.1082018315524</v>
+        <v>118.1082018315525</v>
       </c>
       <c r="L36" t="n">
-        <v>158.8110528199202</v>
+        <v>158.8110528199203</v>
       </c>
       <c r="M36" t="n">
         <v>185.3250080074092</v>
@@ -33751,16 +33751,16 @@
         <v>190.2300095175932</v>
       </c>
       <c r="O36" t="n">
-        <v>174.0232942596144</v>
+        <v>174.0232942596145</v>
       </c>
       <c r="P36" t="n">
         <v>139.6690358079727</v>
       </c>
       <c r="Q36" t="n">
-        <v>93.36505163662173</v>
+        <v>93.36505163662174</v>
       </c>
       <c r="R36" t="n">
-        <v>45.41216571495388</v>
+        <v>45.41216571495389</v>
       </c>
       <c r="S36" t="n">
         <v>13.58579554979016</v>
@@ -33806,37 +33806,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6131974997989174</v>
+        <v>0.6131974997989175</v>
       </c>
       <c r="H37" t="n">
-        <v>5.451883225484924</v>
+        <v>5.451883225484925</v>
       </c>
       <c r="I37" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J37" t="n">
-        <v>43.35306323578345</v>
+        <v>43.35306323578346</v>
       </c>
       <c r="K37" t="n">
         <v>71.2424004311833</v>
       </c>
       <c r="L37" t="n">
-        <v>91.16574465192269</v>
+        <v>91.16574465192271</v>
       </c>
       <c r="M37" t="n">
-        <v>96.12149535484301</v>
+        <v>96.12149535484302</v>
       </c>
       <c r="N37" t="n">
-        <v>93.83594103741075</v>
+        <v>93.83594103741078</v>
       </c>
       <c r="O37" t="n">
-        <v>86.67267933521428</v>
+        <v>86.6726793352143</v>
       </c>
       <c r="P37" t="n">
-        <v>74.1634503393163</v>
+        <v>74.16345033931631</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.34692882407116</v>
+        <v>51.34692882407117</v>
       </c>
       <c r="R37" t="n">
         <v>27.5715894000495</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>47.94769843361666</v>
+      </c>
+      <c r="N2" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>54.19701966463789</v>
-      </c>
-      <c r="N2" t="n">
-        <v>47.94769843361666</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>4.059542658712616</v>
@@ -34780,25 +34780,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="L3" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>54.19701966463789</v>
       </c>
       <c r="N3" t="n">
-        <v>44.53925033830414</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L5" t="n">
         <v>54.19701966463789</v>
@@ -34947,16 +34947,16 @@
         <v>54.19701966463789</v>
       </c>
       <c r="N5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>47.94769843361666</v>
+        <v>52.00724109232928</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>54.19701966463789</v>
       </c>
       <c r="L6" t="n">
-        <v>44.53925033830414</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M6" t="n">
         <v>54.19701966463789</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>52.00724109232928</v>
       </c>
       <c r="P6" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>118.1505544713423</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>118.1505544713423</v>
+        <v>118.1505544713415</v>
       </c>
       <c r="M8" t="n">
-        <v>109.3172520360098</v>
+        <v>118.1505544713415</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>118.1505544713415</v>
       </c>
       <c r="O8" t="n">
-        <v>118.1505544713423</v>
+        <v>113.3767946947217</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>118.1505544713423</v>
+        <v>118.1505544713415</v>
       </c>
       <c r="L9" t="n">
-        <v>118.1505544713423</v>
+        <v>118.1505544713415</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>23.91065442928443</v>
       </c>
       <c r="N9" t="n">
-        <v>105.9088039406972</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>118.1505544713423</v>
+        <v>118.1505544713415</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>115.3647210093229</v>
+        <v>115.3647210093226</v>
       </c>
       <c r="K11" t="n">
         <v>296.4135214040257</v>
       </c>
       <c r="L11" t="n">
-        <v>420.2212022843993</v>
+        <v>420.2212022843994</v>
       </c>
       <c r="M11" t="n">
-        <v>482.9430088907038</v>
+        <v>482.9430088907039</v>
       </c>
       <c r="N11" t="n">
-        <v>475.0836175423206</v>
+        <v>475.0836175423207</v>
       </c>
       <c r="O11" t="n">
         <v>402.0136939540475</v>
@@ -35497,19 +35497,19 @@
         <v>409.3944916501405</v>
       </c>
       <c r="M12" t="n">
-        <v>531.0775912334412</v>
+        <v>531.0775912334414</v>
       </c>
       <c r="N12" t="n">
         <v>560.6879095536389</v>
       </c>
       <c r="O12" t="n">
-        <v>444.6087679740798</v>
+        <v>444.6087679740799</v>
       </c>
       <c r="P12" t="n">
-        <v>340.2452679645353</v>
+        <v>340.2452679645354</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.7487425922706</v>
+        <v>104.7487425922701</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.46799071334995</v>
+        <v>56.46799071334996</v>
       </c>
       <c r="L13" t="n">
         <v>128.626874880932</v>
@@ -35585,7 +35585,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P13" t="n">
-        <v>80.28547223800015</v>
+        <v>80.28547223800017</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>115.3647210093227</v>
+        <v>115.3647210093229</v>
       </c>
       <c r="K14" t="n">
         <v>296.4135214040257</v>
       </c>
       <c r="L14" t="n">
-        <v>420.2212022843993</v>
+        <v>420.2212022843994</v>
       </c>
       <c r="M14" t="n">
-        <v>482.9430088907038</v>
+        <v>482.9430088907039</v>
       </c>
       <c r="N14" t="n">
-        <v>475.0836175423206</v>
+        <v>475.0836175423207</v>
       </c>
       <c r="O14" t="n">
         <v>402.0136939540475</v>
@@ -35667,7 +35667,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.6821766245795</v>
+        <v>151.6821766245793</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.57108920456355</v>
       </c>
       <c r="K15" t="n">
         <v>258.7566453246342</v>
@@ -35734,19 +35734,19 @@
         <v>409.3944916501405</v>
       </c>
       <c r="M15" t="n">
-        <v>531.0775912334412</v>
+        <v>531.0775912334414</v>
       </c>
       <c r="N15" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933119</v>
       </c>
       <c r="O15" t="n">
-        <v>444.6087679740798</v>
+        <v>444.6087679740799</v>
       </c>
       <c r="P15" t="n">
-        <v>340.2452679645353</v>
+        <v>340.2452679645354</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.7487425922706</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.46799071334995</v>
+        <v>56.46799071334996</v>
       </c>
       <c r="L16" t="n">
         <v>128.626874880932</v>
@@ -35822,7 +35822,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P16" t="n">
-        <v>80.28547223800015</v>
+        <v>80.28547223800017</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>115.3647210093227</v>
+        <v>115.3647210093229</v>
       </c>
       <c r="K17" t="n">
         <v>296.4135214040257</v>
       </c>
       <c r="L17" t="n">
-        <v>420.2212022843993</v>
+        <v>420.2212022843994</v>
       </c>
       <c r="M17" t="n">
-        <v>482.9430088907038</v>
+        <v>482.9430088907039</v>
       </c>
       <c r="N17" t="n">
-        <v>475.0836175423206</v>
+        <v>475.0836175423207</v>
       </c>
       <c r="O17" t="n">
         <v>402.0136939540475</v>
@@ -35904,7 +35904,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q17" t="n">
-        <v>151.6821766245795</v>
+        <v>151.6821766245793</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.57108920456355</v>
       </c>
       <c r="K18" t="n">
         <v>258.7566453246342</v>
@@ -35971,19 +35971,19 @@
         <v>409.3944916501405</v>
       </c>
       <c r="M18" t="n">
-        <v>531.0775912334412</v>
+        <v>531.0775912334414</v>
       </c>
       <c r="N18" t="n">
         <v>560.6879095536389</v>
       </c>
       <c r="O18" t="n">
-        <v>444.6087679740798</v>
+        <v>444.6087679740799</v>
       </c>
       <c r="P18" t="n">
-        <v>340.2452679645353</v>
+        <v>340.2452679645354</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.7487425922706</v>
+        <v>28.17765338770618</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.46799071334995</v>
+        <v>56.46799071334996</v>
       </c>
       <c r="L19" t="n">
         <v>128.626874880932</v>
@@ -36059,7 +36059,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P19" t="n">
-        <v>80.28547223800015</v>
+        <v>80.28547223800017</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36132,13 +36132,13 @@
         <v>482.9430088907038</v>
       </c>
       <c r="N20" t="n">
-        <v>475.0836175423205</v>
+        <v>475.0836175423206</v>
       </c>
       <c r="O20" t="n">
         <v>402.0136939540475</v>
       </c>
       <c r="P20" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833409</v>
       </c>
       <c r="Q20" t="n">
         <v>151.6821766245795</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K24" t="n">
         <v>258.7566453246342</v>
@@ -36448,7 +36448,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N24" t="n">
-        <v>490.0734509978752</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O24" t="n">
         <v>444.6087679740798</v>
@@ -36615,7 +36615,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q26" t="n">
-        <v>151.6821766245794</v>
+        <v>151.6821766245795</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K27" t="n">
         <v>258.7566453246342</v>
       </c>
       <c r="L27" t="n">
-        <v>409.3944916501404</v>
+        <v>409.3944916501405</v>
       </c>
       <c r="M27" t="n">
         <v>531.0775912334412</v>
       </c>
       <c r="N27" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O27" t="n">
         <v>444.6087679740798</v>
@@ -36694,7 +36694,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.7487425922706</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36764,13 +36764,13 @@
         <v>146.3189033517516</v>
       </c>
       <c r="N28" t="n">
-        <v>148.0329607020486</v>
+        <v>148.0329607020487</v>
       </c>
       <c r="O28" t="n">
-        <v>121.2408873651853</v>
+        <v>121.2408873651854</v>
       </c>
       <c r="P28" t="n">
-        <v>80.28547223800014</v>
+        <v>80.28547223800015</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q29" t="n">
-        <v>151.6821766245794</v>
+        <v>151.6821766245795</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.57108920456352</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>258.7566453246342</v>
       </c>
       <c r="L30" t="n">
-        <v>409.3944916501404</v>
+        <v>409.3944916501405</v>
       </c>
       <c r="M30" t="n">
-        <v>531.0775912334412</v>
+        <v>460.4631326776775</v>
       </c>
       <c r="N30" t="n">
         <v>560.6879095536389</v>
@@ -36928,10 +36928,10 @@
         <v>444.6087679740798</v>
       </c>
       <c r="P30" t="n">
-        <v>193.0597202042087</v>
+        <v>340.2452679645353</v>
       </c>
       <c r="Q30" t="n">
-        <v>175.3632011480338</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37001,13 +37001,13 @@
         <v>146.3189033517516</v>
       </c>
       <c r="N31" t="n">
-        <v>148.0329607020486</v>
+        <v>148.0329607020487</v>
       </c>
       <c r="O31" t="n">
-        <v>121.2408873651853</v>
+        <v>121.2408873651854</v>
       </c>
       <c r="P31" t="n">
-        <v>80.28547223800014</v>
+        <v>80.28547223800015</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q32" t="n">
-        <v>151.6821766245794</v>
+        <v>151.6821766245795</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K33" t="n">
-        <v>188.1421867688705</v>
+        <v>258.7566453246342</v>
       </c>
       <c r="L33" t="n">
-        <v>409.3944916501404</v>
+        <v>409.3944916501405</v>
       </c>
       <c r="M33" t="n">
-        <v>531.0775912334412</v>
+        <v>383.8920434731139</v>
       </c>
       <c r="N33" t="n">
         <v>560.6879095536389</v>
@@ -37168,7 +37168,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q33" t="n">
-        <v>175.3632011480338</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37238,13 +37238,13 @@
         <v>146.3189033517516</v>
       </c>
       <c r="N34" t="n">
-        <v>148.0329607020486</v>
+        <v>148.0329607020487</v>
       </c>
       <c r="O34" t="n">
-        <v>121.2408873651853</v>
+        <v>121.2408873651854</v>
       </c>
       <c r="P34" t="n">
-        <v>80.28547223800014</v>
+        <v>80.28547223800015</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L35" t="n">
-        <v>420.2212022843993</v>
+        <v>420.2212022843991</v>
       </c>
       <c r="M35" t="n">
         <v>482.9430088907038</v>
@@ -37326,7 +37326,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q35" t="n">
-        <v>151.6821766245794</v>
+        <v>151.6821766245795</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>258.7566453246342</v>
       </c>
       <c r="L36" t="n">
-        <v>409.3944916501404</v>
+        <v>409.3944916501405</v>
       </c>
       <c r="M36" t="n">
         <v>531.0775912334412</v>
@@ -37475,13 +37475,13 @@
         <v>146.3189033517516</v>
       </c>
       <c r="N37" t="n">
-        <v>148.0329607020486</v>
+        <v>148.0329607020487</v>
       </c>
       <c r="O37" t="n">
-        <v>121.2408873651853</v>
+        <v>121.2408873651854</v>
       </c>
       <c r="P37" t="n">
-        <v>80.28547223800014</v>
+        <v>80.28547223800015</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>402.0136939540475</v>
       </c>
       <c r="P38" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833409</v>
       </c>
       <c r="Q38" t="n">
         <v>151.6821766245795</v>
@@ -37633,7 +37633,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N39" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O39" t="n">
         <v>444.6087679740798</v>
@@ -37642,7 +37642,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.1776533877071</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>115.3647210093227</v>
+        <v>115.3647210093229</v>
       </c>
       <c r="K41" t="n">
         <v>296.4135214040257</v>
@@ -37788,7 +37788,7 @@
         <v>420.2212022843993</v>
       </c>
       <c r="M41" t="n">
-        <v>482.9430088907038</v>
+        <v>482.9430088907037</v>
       </c>
       <c r="N41" t="n">
         <v>475.0836175423206</v>
@@ -37870,7 +37870,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N42" t="n">
-        <v>413.5023617933117</v>
+        <v>560.6879095536389</v>
       </c>
       <c r="O42" t="n">
         <v>444.6087679740798</v>
@@ -37879,7 +37879,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q42" t="n">
-        <v>175.3632011480339</v>
+        <v>28.1776533877071</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L44" t="n">
-        <v>420.2212022843991</v>
+        <v>420.2212022843993</v>
       </c>
       <c r="M44" t="n">
         <v>482.9430088907038</v>
@@ -38037,7 +38037,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.6821766245795</v>
+        <v>151.6821766245793</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K45" t="n">
         <v>258.7566453246342</v>
@@ -38107,7 +38107,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N45" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O45" t="n">
         <v>444.6087679740798</v>
@@ -38116,7 +38116,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.7487425922706</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
